--- a/old_material.xlsx
+++ b/old_material.xlsx
@@ -851,20 +851,20 @@
   </sheetPr>
   <dimension ref="A1:I292"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E268" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H293" activeCellId="0" sqref="H293"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E247" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H261" activeCellId="0" sqref="H261"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="2" width="13.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="51.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="22.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="54.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="47.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="120.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="47.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="4" width="8.89"/>
   </cols>
   <sheetData>
@@ -900,15 +900,15 @@
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>393.131202912109</v>
+        <v>201.627708298454</v>
       </c>
       <c r="B2" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>785.101518796282</v>
+        <v>1986.67904766212</v>
       </c>
       <c r="C2" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1392.57037411097</v>
+        <v>1590.48522884928</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>9</v>
@@ -932,15 +932,15 @@
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1283.29200909431</v>
+        <v>412.282251184589</v>
       </c>
       <c r="B3" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1681.66170694941</v>
+        <v>988.777606205196</v>
       </c>
       <c r="C3" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>393.58852176625</v>
+        <v>1231.62005211204</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>13</v>
@@ -964,15 +964,15 @@
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>309.782625704004</v>
+        <v>293.358627300618</v>
       </c>
       <c r="B4" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>978.003012626313</v>
+        <v>881.233868999856</v>
       </c>
       <c r="C4" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>736.837296645059</v>
+        <v>350.623552158043</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>17</v>
@@ -996,15 +996,15 @@
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>903.341217682118</v>
+        <v>151.137391539464</v>
       </c>
       <c r="B5" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>223.244474848257</v>
+        <v>1266.93111636812</v>
       </c>
       <c r="C5" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>644.374866915989</v>
+        <v>334.151062906637</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>21</v>
@@ -1028,15 +1028,15 @@
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1335.20308777257</v>
+        <v>858.480429884653</v>
       </c>
       <c r="B6" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1039.8346927395</v>
+        <v>1163.50152475978</v>
       </c>
       <c r="C6" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>969.465359973573</v>
+        <v>1643.622899146</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>24</v>
@@ -1060,15 +1060,15 @@
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1597.3519781506</v>
+        <v>1408.51313834832</v>
       </c>
       <c r="B7" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>853.115689715028</v>
+        <v>1144.93781814011</v>
       </c>
       <c r="C7" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>506.354542680208</v>
+        <v>774.667324648493</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>27</v>
@@ -1092,15 +1092,15 @@
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1634.72991667945</v>
+        <v>1709.47799189468</v>
       </c>
       <c r="B8" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1300.53179258752</v>
+        <v>437.799929498615</v>
       </c>
       <c r="C8" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>58.0719049983273</v>
+        <v>1736.68424940297</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>28</v>
@@ -1124,15 +1124,15 @@
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>138.878391869831</v>
+        <v>1478.80805889937</v>
       </c>
       <c r="B9" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>610.491042954622</v>
+        <v>1950.29856117221</v>
       </c>
       <c r="C9" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>119.303820549524</v>
+        <v>475.361529546941</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>29</v>
@@ -1156,15 +1156,15 @@
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>225.638022985045</v>
+        <v>861.069140394961</v>
       </c>
       <c r="B10" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1401.93546250739</v>
+        <v>1679.36053735918</v>
       </c>
       <c r="C10" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1019.38169973431</v>
+        <v>312.672707763799</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>32</v>
@@ -1188,15 +1188,15 @@
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1898.30693583594</v>
+        <v>1554.81682259013</v>
       </c>
       <c r="B11" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1704.06195101908</v>
+        <v>1630.5989959558</v>
       </c>
       <c r="C11" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1001.02062649133</v>
+        <v>1737.06833534153</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>33</v>
@@ -1220,15 +1220,15 @@
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1955.18256546567</v>
+        <v>520.790883670898</v>
       </c>
       <c r="B12" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>414.028445645936</v>
+        <v>540.909306721135</v>
       </c>
       <c r="C12" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1169.87795439082</v>
+        <v>1601.23275710652</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>36</v>
@@ -1252,15 +1252,15 @@
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1395.84353819119</v>
+        <v>260.15205453281</v>
       </c>
       <c r="B13" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>545.924552357761</v>
+        <v>1649.66955406199</v>
       </c>
       <c r="C13" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1441.06139603457</v>
+        <v>956.26401972252</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>37</v>
@@ -1284,15 +1284,15 @@
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1740.09632356757</v>
+        <v>144.114238053849</v>
       </c>
       <c r="B14" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1708.36837816026</v>
+        <v>678.045286436238</v>
       </c>
       <c r="C14" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>146.671492683326</v>
+        <v>994.111022932227</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>33</v>
@@ -1316,15 +1316,15 @@
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>52.383408368257</v>
+        <v>1405.37088031932</v>
       </c>
       <c r="B15" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>641.452843221186</v>
+        <v>145.793031385868</v>
       </c>
       <c r="C15" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>477.783074481279</v>
+        <v>952.993831903873</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>38</v>
@@ -1348,15 +1348,15 @@
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1416.21148552483</v>
+        <v>1214.26025161814</v>
       </c>
       <c r="B16" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>471.776308145353</v>
+        <v>1026.31918620859</v>
       </c>
       <c r="C16" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1092.28154636604</v>
+        <v>555.458952181516</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>39</v>
@@ -1374,15 +1374,15 @@
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1871.08461133432</v>
+        <v>1462.99714454069</v>
       </c>
       <c r="B17" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>696.475643542658</v>
+        <v>1056.11713321604</v>
       </c>
       <c r="C17" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>481.921080633493</v>
+        <v>1249.59609179344</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>42</v>
@@ -1406,15 +1406,15 @@
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>49.4770890361802</v>
+        <v>1926.62635120683</v>
       </c>
       <c r="B18" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1611.8948507444</v>
+        <v>565.798670524835</v>
       </c>
       <c r="C18" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>251.249771571871</v>
+        <v>729.139629875327</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>43</v>
@@ -1432,15 +1432,15 @@
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1291.77500152196</v>
+        <v>478.044082192963</v>
       </c>
       <c r="B19" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>634.390489281872</v>
+        <v>1686.37726708939</v>
       </c>
       <c r="C19" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1007.49305469517</v>
+        <v>1910.49039390156</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>47</v>
@@ -1464,15 +1464,15 @@
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>965.559065206811</v>
+        <v>240.81893120524</v>
       </c>
       <c r="B20" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>866.461338145054</v>
+        <v>1143.46485090692</v>
       </c>
       <c r="C20" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1348.32057019588</v>
+        <v>756.198552712462</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>48</v>
@@ -1496,15 +1496,15 @@
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>647.487058810841</v>
+        <v>1198.60938468281</v>
       </c>
       <c r="B21" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1999.64546990669</v>
+        <v>1294.85969974521</v>
       </c>
       <c r="C21" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>800.191001919236</v>
+        <v>1405.30073651592</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>49</v>
@@ -1528,15 +1528,15 @@
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1784.83623160719</v>
+        <v>1054.10709291758</v>
       </c>
       <c r="B22" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1021.31783609212</v>
+        <v>177.547959291205</v>
       </c>
       <c r="C22" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>996.988844127728</v>
+        <v>1451.51914945912</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>37</v>
@@ -1560,15 +1560,15 @@
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1453.0336025891</v>
+        <v>1098.68124163484</v>
       </c>
       <c r="B23" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>472.245626141949</v>
+        <v>925.053870614413</v>
       </c>
       <c r="C23" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>331.680456048047</v>
+        <v>247.326530639183</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>52</v>
@@ -1592,15 +1592,15 @@
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1851.59299574793</v>
+        <v>1413.26944793099</v>
       </c>
       <c r="B24" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1884.17364881111</v>
+        <v>973.202877004154</v>
       </c>
       <c r="C24" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>753.654953199035</v>
+        <v>1006.26991051848</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>53</v>
@@ -1624,15 +1624,15 @@
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1091.54768470667</v>
+        <v>831.616697508921</v>
       </c>
       <c r="B25" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>935.951506724452</v>
+        <v>812.659315975326</v>
       </c>
       <c r="C25" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>393.244855380064</v>
+        <v>669.45728270741</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>54</v>
@@ -1656,15 +1656,15 @@
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1632.20321490966</v>
+        <v>1771.82730919272</v>
       </c>
       <c r="B26" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1518.99794800802</v>
+        <v>632.253856611795</v>
       </c>
       <c r="C26" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>215.025987930901</v>
+        <v>260.45672222096</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>55</v>
@@ -1688,15 +1688,15 @@
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>335.34256350077</v>
+        <v>935.276294103662</v>
       </c>
       <c r="B27" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1493.48547480868</v>
+        <v>215.911381052513</v>
       </c>
       <c r="C27" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1833.84304059268</v>
+        <v>1752.29981748577</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>56</v>
@@ -1720,15 +1720,15 @@
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>99.4233960717616</v>
+        <v>952.567641856902</v>
       </c>
       <c r="B28" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>956.035734474069</v>
+        <v>649.700341518856</v>
       </c>
       <c r="C28" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>603.023400955438</v>
+        <v>213.141861678042</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>57</v>
@@ -1752,15 +1752,15 @@
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>360.574792544584</v>
+        <v>1737.90190881703</v>
       </c>
       <c r="B29" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1459.28422843356</v>
+        <v>948.964620648887</v>
       </c>
       <c r="C29" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>690.514522131193</v>
+        <v>1268.84302631942</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>58</v>
@@ -1784,15 +1784,15 @@
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1703.96207709903</v>
+        <v>167.943338108186</v>
       </c>
       <c r="B30" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1421.50256215187</v>
+        <v>1070.34137253195</v>
       </c>
       <c r="C30" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1240.80906736115</v>
+        <v>402.239554173696</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>61</v>
@@ -1816,15 +1816,15 @@
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1486.47067491822</v>
+        <v>666.577540366873</v>
       </c>
       <c r="B31" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1980.45708661086</v>
+        <v>1488.43126930643</v>
       </c>
       <c r="C31" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>920.175434530345</v>
+        <v>1434.67057133388</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>62</v>
@@ -1848,15 +1848,15 @@
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>298.90124964283</v>
+        <v>1117.72483927641</v>
       </c>
       <c r="B32" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1120.81057864559</v>
+        <v>1517.01857653861</v>
       </c>
       <c r="C32" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>462.627783953533</v>
+        <v>1790.96345495644</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>42</v>
@@ -1880,15 +1880,15 @@
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>179.781408071646</v>
+        <v>346.062672097397</v>
       </c>
       <c r="B33" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>76.7937711621232</v>
+        <v>459.382168218951</v>
       </c>
       <c r="C33" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1116.35420444743</v>
+        <v>1358.15078807123</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>63</v>
@@ -1912,15 +1912,15 @@
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>918.76173060389</v>
+        <v>1022.18245684106</v>
       </c>
       <c r="B34" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1055.07859433544</v>
+        <v>1180.02224972019</v>
       </c>
       <c r="C34" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>30.2040065664978</v>
+        <v>1147.0583921312</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>62</v>
@@ -1944,15 +1944,15 @@
     <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>528.914173314912</v>
+        <v>1959.37621804721</v>
       </c>
       <c r="B35" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1755.1847540456</v>
+        <v>421.255254634892</v>
       </c>
       <c r="C35" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>118.085684108948</v>
+        <v>962.091861209211</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>64</v>
@@ -1976,15 +1976,15 @@
     <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>338.152593819623</v>
+        <v>1768.92057370412</v>
       </c>
       <c r="B36" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>961.772292846323</v>
+        <v>609.501121047904</v>
       </c>
       <c r="C36" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1194.06611861066</v>
+        <v>1859.60703575337</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>65</v>
@@ -2008,15 +2008,15 @@
     <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1733.9820087393</v>
+        <v>690.214212622465</v>
       </c>
       <c r="B37" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1898.58125599102</v>
+        <v>1094.12542992693</v>
       </c>
       <c r="C37" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1254.68669216206</v>
+        <v>1924.00634380996</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>69</v>
@@ -2040,15 +2040,15 @@
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1562.57338275121</v>
+        <v>997.110765366714</v>
       </c>
       <c r="B38" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1119.85213872492</v>
+        <v>1787.72262902568</v>
       </c>
       <c r="C38" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1775.19097929382</v>
+        <v>187.093520131766</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>70</v>
@@ -2072,15 +2072,15 @@
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1727.39189427619</v>
+        <v>59.5512620168209</v>
       </c>
       <c r="B39" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>251.856409173085</v>
+        <v>1563.21492355504</v>
       </c>
       <c r="C39" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1849.66605765358</v>
+        <v>1058.76101957925</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>27</v>
@@ -2104,15 +2104,15 @@
     <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>467.292971793579</v>
+        <v>1232.87887864607</v>
       </c>
       <c r="B40" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1673.69518856938</v>
+        <v>1601.43334095558</v>
       </c>
       <c r="C40" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>535.628462138533</v>
+        <v>825.867816754978</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>71</v>
@@ -2136,15 +2136,15 @@
     <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1248.76821454046</v>
+        <v>1276.39498471634</v>
       </c>
       <c r="B41" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1048.9576575547</v>
+        <v>1447.41953143265</v>
       </c>
       <c r="C41" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>142.121165304165</v>
+        <v>694.917931397647</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>72</v>
@@ -2168,15 +2168,15 @@
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1920.37164720698</v>
+        <v>691.315264649343</v>
       </c>
       <c r="B42" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1045.7967580272</v>
+        <v>507.372063356644</v>
       </c>
       <c r="C42" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>208.125237229278</v>
+        <v>543.132699303514</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>73</v>
@@ -2200,15 +2200,15 @@
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1953.39006561922</v>
+        <v>199.151136021738</v>
       </c>
       <c r="B43" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1696.30068152319</v>
+        <v>367.60658611599</v>
       </c>
       <c r="C43" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1511.62134302159</v>
+        <v>106.416910038866</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>74</v>
@@ -2232,15 +2232,15 @@
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1427.93765590205</v>
+        <v>1292.8828253742</v>
       </c>
       <c r="B44" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1625.16503145058</v>
+        <v>412.485876196694</v>
       </c>
       <c r="C44" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>566.572332290006</v>
+        <v>89.3967563480315</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>75</v>
@@ -2264,15 +2264,15 @@
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1994.92708085521</v>
+        <v>1331.77052979216</v>
       </c>
       <c r="B45" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1312.56017363614</v>
+        <v>771.19011219745</v>
       </c>
       <c r="C45" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>466.301003575035</v>
+        <v>1975.54878654906</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>76</v>
@@ -2296,15 +2296,15 @@
     <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1546.07942933583</v>
+        <v>53.3145800374732</v>
       </c>
       <c r="B46" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1506.10193759697</v>
+        <v>1841.58794248641</v>
       </c>
       <c r="C46" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>384.777066270985</v>
+        <v>374.357721424794</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>77</v>
@@ -2328,15 +2328,15 @@
     <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1678.87125938159</v>
+        <v>33.7621132355543</v>
       </c>
       <c r="B47" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1533.38690176749</v>
+        <v>5.5632040490863</v>
       </c>
       <c r="C47" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>420.624481429449</v>
+        <v>1824.89089566879</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>78</v>
@@ -2360,15 +2360,15 @@
     <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>328.77059479755</v>
+        <v>1454.30005064036</v>
       </c>
       <c r="B48" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1389.03042968014</v>
+        <v>1809.58684608729</v>
       </c>
       <c r="C48" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>970.938622409983</v>
+        <v>841.630682993315</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>79</v>
@@ -2392,15 +2392,15 @@
     <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>881.382920432107</v>
+        <v>958.026191770682</v>
       </c>
       <c r="B49" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1899.68050522332</v>
+        <v>1165.92094296808</v>
       </c>
       <c r="C49" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1736.34863642563</v>
+        <v>376.085251822612</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>80</v>
@@ -2424,15 +2424,15 @@
     <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1794.00863349111</v>
+        <v>677.137337967009</v>
       </c>
       <c r="B50" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1171.86514782988</v>
+        <v>1981.18549131121</v>
       </c>
       <c r="C50" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>809.976310256135</v>
+        <v>476.575592746523</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>38</v>
@@ -2456,15 +2456,15 @@
     <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>245.365553176319</v>
+        <v>1150.52216644825</v>
       </c>
       <c r="B51" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1576.504707166</v>
+        <v>1791.01329817882</v>
       </c>
       <c r="C51" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>312.623153575161</v>
+        <v>834.035736645019</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>32</v>
@@ -2488,15 +2488,15 @@
     <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>342.364976563162</v>
+        <v>1459.44026531014</v>
       </c>
       <c r="B52" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1086.05987341356</v>
+        <v>546.477240472082</v>
       </c>
       <c r="C52" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1920.55968795782</v>
+        <v>980.287532516132</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>57</v>
@@ -2520,15 +2520,15 @@
     <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1022.08369120321</v>
+        <v>622.650551787237</v>
       </c>
       <c r="B53" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>926.830779566525</v>
+        <v>419.686138258835</v>
       </c>
       <c r="C53" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>403.57834643505</v>
+        <v>1685.97068344895</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>64</v>
@@ -2552,15 +2552,15 @@
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1224.79319331833</v>
+        <v>1190.6454047512</v>
       </c>
       <c r="B54" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>364.737011896304</v>
+        <v>1977.83133539834</v>
       </c>
       <c r="C54" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>616.484157967913</v>
+        <v>1283.27953126601</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>81</v>
@@ -2584,15 +2584,15 @@
     <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>545.999214006189</v>
+        <v>515.517587496604</v>
       </c>
       <c r="B55" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>773.687442797627</v>
+        <v>1735.71882432472</v>
       </c>
       <c r="C55" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>725.155998483267</v>
+        <v>726.019960431561</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>82</v>
@@ -2616,15 +2616,15 @@
     <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>873.761979886948</v>
+        <v>1517.59565410732</v>
       </c>
       <c r="B56" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>811.869661418589</v>
+        <v>748.465569842745</v>
       </c>
       <c r="C56" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>824.492128321631</v>
+        <v>1362.01943235653</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>58</v>
@@ -2648,15 +2648,15 @@
     <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1644.6049911803</v>
+        <v>1096.81720911826</v>
       </c>
       <c r="B57" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>322.984306539469</v>
+        <v>1123.3761922435</v>
       </c>
       <c r="C57" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1634.18067314474</v>
+        <v>581.215118646065</v>
       </c>
       <c r="D57" s="0" t="s">
         <v>83</v>
@@ -2680,15 +2680,15 @@
     <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1365.39452969474</v>
+        <v>1752.02615162244</v>
       </c>
       <c r="B58" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>30.2296028355155</v>
+        <v>684.635554002188</v>
       </c>
       <c r="C58" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1280.86039191364</v>
+        <v>52.7755729791098</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>84</v>
@@ -2712,15 +2712,15 @@
     <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>160.524732104062</v>
+        <v>354.28837764643</v>
       </c>
       <c r="B59" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1442.85038741008</v>
+        <v>60.5085321427866</v>
       </c>
       <c r="C59" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>183.908330450516</v>
+        <v>736.143684390345</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>85</v>
@@ -2744,15 +2744,15 @@
     <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>183.741456549943</v>
+        <v>255.402983391012</v>
       </c>
       <c r="B60" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1197.47022765961</v>
+        <v>1872.8476414368</v>
       </c>
       <c r="C60" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>195.52288873635</v>
+        <v>539.762715810837</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>86</v>
@@ -2776,15 +2776,15 @@
     <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>756.399150009159</v>
+        <v>1210.2241742285</v>
       </c>
       <c r="B61" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>554.827184217923</v>
+        <v>28.3189761056883</v>
       </c>
       <c r="C61" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1526.5173160622</v>
+        <v>1374.81302014225</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>87</v>
@@ -2808,15 +2808,15 @@
     <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>530.888107684441</v>
+        <v>1021.48931337175</v>
       </c>
       <c r="B62" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1768.61549851786</v>
+        <v>1081.91309111349</v>
       </c>
       <c r="C62" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1012.09616520616</v>
+        <v>1000.18519252445</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>88</v>
@@ -2840,15 +2840,15 @@
     <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>276.984283865309</v>
+        <v>976.057198854544</v>
       </c>
       <c r="B63" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1744.2540385991</v>
+        <v>591.467544786087</v>
       </c>
       <c r="C63" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>873.069554507203</v>
+        <v>1979.2093133535</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>89</v>
@@ -2872,15 +2872,15 @@
     <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1618.64810787095</v>
+        <v>770.493980858123</v>
       </c>
       <c r="B64" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1315.83172843641</v>
+        <v>1866.23649334068</v>
       </c>
       <c r="C64" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>513.619060455235</v>
+        <v>449.846398592445</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>90</v>
@@ -2904,15 +2904,15 @@
     <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1435.21191335929</v>
+        <v>202.717378646267</v>
       </c>
       <c r="B65" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1374.46377563611</v>
+        <v>1003.38486840448</v>
       </c>
       <c r="C65" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1796.75504369038</v>
+        <v>826.509900988031</v>
       </c>
       <c r="D65" s="0" t="s">
         <v>91</v>
@@ -2936,15 +2936,15 @@
     <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1223.72542369444</v>
+        <v>520.243231058338</v>
       </c>
       <c r="B66" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1274.47783241977</v>
+        <v>922.472105498649</v>
       </c>
       <c r="C66" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1032.60357603438</v>
+        <v>1801.5347616444</v>
       </c>
       <c r="D66" s="0" t="s">
         <v>92</v>
@@ -2968,15 +2968,15 @@
     <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>741.163245714225</v>
+        <v>770.984653392602</v>
       </c>
       <c r="B67" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1110.67313074744</v>
+        <v>1617.86607264738</v>
       </c>
       <c r="C67" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>796.678449464919</v>
+        <v>92.0627078450242</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>93</v>
@@ -3000,15 +3000,15 @@
     <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>307.783863401606</v>
+        <v>464.955608304493</v>
       </c>
       <c r="B68" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1767.62398038</v>
+        <v>915.274971595347</v>
       </c>
       <c r="C68" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1753.35270229586</v>
+        <v>492.444589752636</v>
       </c>
       <c r="D68" s="0" t="s">
         <v>21</v>
@@ -3032,15 +3032,15 @@
     <row r="69" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1776.19789396663</v>
+        <v>1541.04038687448</v>
       </c>
       <c r="B69" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1664.3998259299</v>
+        <v>840.553125715428</v>
       </c>
       <c r="C69" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>923.149473398223</v>
+        <v>791.844369911259</v>
       </c>
       <c r="D69" s="0" t="s">
         <v>56</v>
@@ -3064,15 +3064,15 @@
     <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>937.288003584313</v>
+        <v>310.148983457247</v>
       </c>
       <c r="B70" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>520.509800985388</v>
+        <v>1184.60403961314</v>
       </c>
       <c r="C70" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1848.38161715559</v>
+        <v>1650.9252331142</v>
       </c>
       <c r="D70" s="0" t="s">
         <v>28</v>
@@ -3096,15 +3096,15 @@
     <row r="71" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1180.18157803265</v>
+        <v>725.721576692621</v>
       </c>
       <c r="B71" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1074.53645952181</v>
+        <v>1772.69930032532</v>
       </c>
       <c r="C71" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>752.125119108895</v>
+        <v>754.484571981944</v>
       </c>
       <c r="D71" s="0" t="s">
         <v>94</v>
@@ -3128,15 +3128,15 @@
     <row r="72" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1600.90480922111</v>
+        <v>858.850968249515</v>
       </c>
       <c r="B72" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1259.6531854369</v>
+        <v>1628.19770616409</v>
       </c>
       <c r="C72" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1135.08001573119</v>
+        <v>579.077648754414</v>
       </c>
       <c r="D72" s="0" t="s">
         <v>95</v>
@@ -3160,15 +3160,15 @@
     <row r="73" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>716.189851002587</v>
+        <v>849.529086629319</v>
       </c>
       <c r="B73" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1581.16636190793</v>
+        <v>753.909354965402</v>
       </c>
       <c r="C73" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>987.220470591053</v>
+        <v>1728.68760156381</v>
       </c>
       <c r="D73" s="0" t="s">
         <v>96</v>
@@ -3192,15 +3192,15 @@
     <row r="74" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>248.882572458164</v>
+        <v>396.987897922295</v>
       </c>
       <c r="B74" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1878.0650885877</v>
+        <v>275.005054192028</v>
       </c>
       <c r="C74" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>653.492809712207</v>
+        <v>134.484205442228</v>
       </c>
       <c r="D74" s="0" t="s">
         <v>97</v>
@@ -3224,15 +3224,15 @@
     <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>826.159672775913</v>
+        <v>1821.86162241458</v>
       </c>
       <c r="B75" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1578.59602073133</v>
+        <v>1670.20980489822</v>
       </c>
       <c r="C75" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1166.25989114615</v>
+        <v>475.669435796854</v>
       </c>
       <c r="D75" s="0" t="s">
         <v>98</v>
@@ -3256,15 +3256,15 @@
     <row r="76" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>762.865649656307</v>
+        <v>1632.36950502957</v>
       </c>
       <c r="B76" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1279.47122119239</v>
+        <v>1363.60555400948</v>
       </c>
       <c r="C76" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1773.16042903247</v>
+        <v>1724.97454523456</v>
       </c>
       <c r="D76" s="0" t="s">
         <v>48</v>
@@ -3288,15 +3288,15 @@
     <row r="77" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>276.714188544678</v>
+        <v>213.481355715229</v>
       </c>
       <c r="B77" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>641.497233030094</v>
+        <v>1131.56654051902</v>
       </c>
       <c r="C77" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>325.33459269657</v>
+        <v>66.6304082154115</v>
       </c>
       <c r="D77" s="0" t="s">
         <v>99</v>
@@ -3320,15 +3320,15 @@
     <row r="78" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>330.062483470796</v>
+        <v>1425.11746594681</v>
       </c>
       <c r="B78" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1058.80735786491</v>
+        <v>329.586119343577</v>
       </c>
       <c r="C78" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>713.693837939674</v>
+        <v>896.837188789113</v>
       </c>
       <c r="D78" s="0" t="s">
         <v>100</v>
@@ -3352,15 +3352,15 @@
     <row r="79" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1882.15869004403</v>
+        <v>1149.38723035102</v>
       </c>
       <c r="B79" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>124.416278343844</v>
+        <v>569.67370203952</v>
       </c>
       <c r="C79" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>229.265833678974</v>
+        <v>1541.64554343868</v>
       </c>
       <c r="D79" s="0" t="s">
         <v>101</v>
@@ -3384,15 +3384,15 @@
     <row r="80" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>815.753603328417</v>
+        <v>1731.03218504452</v>
       </c>
       <c r="B80" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1620.57477875654</v>
+        <v>1696.59462125851</v>
       </c>
       <c r="C80" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1827.57656195402</v>
+        <v>1128.91581075053</v>
       </c>
       <c r="D80" s="0" t="s">
         <v>102</v>
@@ -3416,15 +3416,15 @@
     <row r="81" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>544.732634961164</v>
+        <v>1804.05710173482</v>
       </c>
       <c r="B81" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1172.48856281799</v>
+        <v>1775.84664345195</v>
       </c>
       <c r="C81" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1749.19465101182</v>
+        <v>939.256660896234</v>
       </c>
       <c r="D81" s="0" t="s">
         <v>103</v>
@@ -3448,15 +3448,15 @@
     <row r="82" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>740.269578810669</v>
+        <v>860.393143623887</v>
       </c>
       <c r="B82" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>335.71491350833</v>
+        <v>1385.22869606014</v>
       </c>
       <c r="C82" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1680.30656344903</v>
+        <v>1285.34321217921</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>104</v>
@@ -3480,15 +3480,15 @@
     <row r="83" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>815.307329300241</v>
+        <v>243.89153915727</v>
       </c>
       <c r="B83" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1298.8727028435</v>
+        <v>13.5406888752083</v>
       </c>
       <c r="C83" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>788.029393572981</v>
+        <v>916.894987326283</v>
       </c>
       <c r="D83" s="0" t="s">
         <v>105</v>
@@ -3512,15 +3512,15 @@
     <row r="84" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>976.658365536104</v>
+        <v>1019.32324985941</v>
       </c>
       <c r="B84" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1819.684013908</v>
+        <v>1756.46709942585</v>
       </c>
       <c r="C84" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1039.8972821976</v>
+        <v>615.012080179069</v>
       </c>
       <c r="D84" s="0" t="s">
         <v>87</v>
@@ -3544,15 +3544,15 @@
     <row r="85" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>47.4871356220322</v>
+        <v>1830.49313296103</v>
       </c>
       <c r="B85" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1086.46442348976</v>
+        <v>232.130939589445</v>
       </c>
       <c r="C85" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>318.617084702441</v>
+        <v>1674.30527164751</v>
       </c>
       <c r="D85" s="0" t="s">
         <v>106</v>
@@ -3576,15 +3576,15 @@
     <row r="86" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>551.391712591642</v>
+        <v>737.488894533195</v>
       </c>
       <c r="B86" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>33.4758948439932</v>
+        <v>1326.82934027394</v>
       </c>
       <c r="C86" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>466.758497476622</v>
+        <v>764.350404644159</v>
       </c>
       <c r="D86" s="0" t="s">
         <v>107</v>
@@ -3608,15 +3608,15 @@
     <row r="87" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>596.679944650329</v>
+        <v>1811.58572797</v>
       </c>
       <c r="B87" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1434.94280918087</v>
+        <v>93.7155904498255</v>
       </c>
       <c r="C87" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1392.7483489568</v>
+        <v>1028.08623884135</v>
       </c>
       <c r="D87" s="0" t="s">
         <v>108</v>
@@ -3640,15 +3640,15 @@
     <row r="88" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>527.416978310108</v>
+        <v>598.251140378458</v>
       </c>
       <c r="B88" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1005.19989894236</v>
+        <v>1197.46071689518</v>
       </c>
       <c r="C88" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1628.26072944906</v>
+        <v>1198.34293396094</v>
       </c>
       <c r="D88" s="0" t="s">
         <v>109</v>
@@ -3672,15 +3672,15 @@
     <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>439.432125493447</v>
+        <v>1766.17946086668</v>
       </c>
       <c r="B89" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>709.315227521562</v>
+        <v>627.805176926078</v>
       </c>
       <c r="C89" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>852.34750488198</v>
+        <v>235.823431986</v>
       </c>
       <c r="D89" s="0" t="s">
         <v>97</v>
@@ -3704,15 +3704,15 @@
     <row r="90" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>389.40273706348</v>
+        <v>1859.16510061463</v>
       </c>
       <c r="B90" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>339.151588155957</v>
+        <v>530.809707548148</v>
       </c>
       <c r="C90" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1571.8135251751</v>
+        <v>920.406233492769</v>
       </c>
       <c r="D90" s="0" t="s">
         <v>110</v>
@@ -3730,15 +3730,15 @@
     <row r="91" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1342.38786339105</v>
+        <v>387.224759064642</v>
       </c>
       <c r="B91" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>758.499847885068</v>
+        <v>1324.7328921755</v>
       </c>
       <c r="C91" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>422.021718953043</v>
+        <v>671.393739917667</v>
       </c>
       <c r="D91" s="0" t="s">
         <v>114</v>
@@ -3762,15 +3762,15 @@
     <row r="92" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>92.3482202916211</v>
+        <v>222.352022756552</v>
       </c>
       <c r="B92" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1546.05095405132</v>
+        <v>1485.08513874136</v>
       </c>
       <c r="C92" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1535.66365755039</v>
+        <v>1621.17231065427</v>
       </c>
       <c r="D92" s="0" t="s">
         <v>115</v>
@@ -3794,15 +3794,15 @@
     <row r="93" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1600.85682197553</v>
+        <v>645.796559537469</v>
       </c>
       <c r="B93" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>744.077372221309</v>
+        <v>974.598659000718</v>
       </c>
       <c r="C93" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>376.25240312098</v>
+        <v>1386.93071574112</v>
       </c>
       <c r="D93" s="0" t="s">
         <v>81</v>
@@ -3826,15 +3826,15 @@
     <row r="94" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1291.08165243931</v>
+        <v>685.966026167161</v>
       </c>
       <c r="B94" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>493.381308359551</v>
+        <v>1269.12819618097</v>
       </c>
       <c r="C94" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>934.693132629251</v>
+        <v>1998.79966478317</v>
       </c>
       <c r="D94" s="0" t="s">
         <v>116</v>
@@ -3858,15 +3858,15 @@
     <row r="95" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>210.709127023053</v>
+        <v>445.409942158337</v>
       </c>
       <c r="B95" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>148.016248467548</v>
+        <v>1973.71450354034</v>
       </c>
       <c r="C95" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>888.855470580709</v>
+        <v>1570.05592532633</v>
       </c>
       <c r="D95" s="0" t="s">
         <v>92</v>
@@ -3890,15 +3890,15 @@
     <row r="96" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1925.92365687667</v>
+        <v>757.249250009621</v>
       </c>
       <c r="B96" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>459.24298876344</v>
+        <v>1148.54166480602</v>
       </c>
       <c r="C96" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1836.6151529749</v>
+        <v>547.981442280806</v>
       </c>
       <c r="D96" s="0" t="s">
         <v>117</v>
@@ -3922,15 +3922,15 @@
     <row r="97" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1406.27983844702</v>
+        <v>1223.28557536371</v>
       </c>
       <c r="B97" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>15.39130645768</v>
+        <v>1279.10380460481</v>
       </c>
       <c r="C97" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>420.8685694735</v>
+        <v>1096.30356067649</v>
       </c>
       <c r="D97" s="0" t="s">
         <v>118</v>
@@ -3954,15 +3954,15 @@
     <row r="98" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>907.380976212597</v>
+        <v>1021.92095864671</v>
       </c>
       <c r="B98" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1255.71664017666</v>
+        <v>638.941759158774</v>
       </c>
       <c r="C98" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1888.32720899962</v>
+        <v>777.19128902568</v>
       </c>
       <c r="D98" s="0" t="s">
         <v>115</v>
@@ -3986,15 +3986,15 @@
     <row r="99" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1030.97611459525</v>
+        <v>410.790213909067</v>
       </c>
       <c r="B99" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1926.24254201497</v>
+        <v>660.191764860471</v>
       </c>
       <c r="C99" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>997.261170559723</v>
+        <v>1731.47023998661</v>
       </c>
       <c r="D99" s="0" t="s">
         <v>121</v>
@@ -4018,15 +4018,15 @@
     <row r="100" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1781.11853901906</v>
+        <v>518.38343170065</v>
       </c>
       <c r="B100" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>362.459051102066</v>
+        <v>1843.85211918304</v>
       </c>
       <c r="C100" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>677.803145878203</v>
+        <v>171.012693161361</v>
       </c>
       <c r="D100" s="0" t="s">
         <v>122</v>
@@ -4050,15 +4050,15 @@
     <row r="101" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>247.595743886306</v>
+        <v>572.655175587</v>
       </c>
       <c r="B101" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1492.0960833822</v>
+        <v>365.226504304664</v>
       </c>
       <c r="C101" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>502.872056888401</v>
+        <v>1675.25622204103</v>
       </c>
       <c r="D101" s="0" t="s">
         <v>98</v>
@@ -4082,15 +4082,15 @@
     <row r="102" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1049.54101090088</v>
+        <v>1115.50989318225</v>
       </c>
       <c r="B102" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>56.1857132205937</v>
+        <v>1516.46167744446</v>
       </c>
       <c r="C102" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>899.226341064193</v>
+        <v>1223.44519991441</v>
       </c>
       <c r="D102" s="0" t="s">
         <v>77</v>
@@ -4114,15 +4114,15 @@
     <row r="103" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1610.53706151475</v>
+        <v>1863.73473222156</v>
       </c>
       <c r="B103" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>239.464741413098</v>
+        <v>130.676319932706</v>
       </c>
       <c r="C103" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1199.26630260982</v>
+        <v>1311.0787714242</v>
       </c>
       <c r="D103" s="0" t="s">
         <v>123</v>
@@ -4146,15 +4146,15 @@
     <row r="104" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>23.2143369568714</v>
+        <v>1329.15666617049</v>
       </c>
       <c r="B104" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1921.66308123881</v>
+        <v>1155.81145125688</v>
       </c>
       <c r="C104" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1233.8353134501</v>
+        <v>1665.3936899376</v>
       </c>
       <c r="D104" s="0" t="s">
         <v>101</v>
@@ -4178,15 +4178,15 @@
     <row r="105" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1146.36450435938</v>
+        <v>1498.25048259406</v>
       </c>
       <c r="B105" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1855.30439198212</v>
+        <v>1547.74066071646</v>
       </c>
       <c r="C105" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>199.159771690246</v>
+        <v>804.191195027109</v>
       </c>
       <c r="D105" s="0" t="s">
         <v>124</v>
@@ -4210,15 +4210,15 @@
     <row r="106" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>749.032636516594</v>
+        <v>529.111466799521</v>
       </c>
       <c r="B106" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>310.627325747224</v>
+        <v>180.728821282219</v>
       </c>
       <c r="C106" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1913.4598993772</v>
+        <v>1964.47373320814</v>
       </c>
       <c r="D106" s="0" t="s">
         <v>125</v>
@@ -4242,15 +4242,15 @@
     <row r="107" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>485.560193655473</v>
+        <v>1204.89300568572</v>
       </c>
       <c r="B107" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>306.075975177174</v>
+        <v>1245.12407484484</v>
       </c>
       <c r="C107" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1664.01207985748</v>
+        <v>1061.10812737339</v>
       </c>
       <c r="D107" s="0" t="s">
         <v>63</v>
@@ -4274,15 +4274,15 @@
     <row r="108" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>334.399465349381</v>
+        <v>312.735567448063</v>
       </c>
       <c r="B108" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>184.484160952647</v>
+        <v>191.914246960907</v>
       </c>
       <c r="C108" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1978.07133980729</v>
+        <v>1849.5943793693</v>
       </c>
       <c r="D108" s="0" t="s">
         <v>126</v>
@@ -4306,15 +4306,15 @@
     <row r="109" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1706.20078446626</v>
+        <v>1835.11320063047</v>
       </c>
       <c r="B109" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1315.0983090432</v>
+        <v>1985.23466731266</v>
       </c>
       <c r="C109" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>958.373323700272</v>
+        <v>1674.94471737593</v>
       </c>
       <c r="D109" s="0" t="s">
         <v>73</v>
@@ -4338,15 +4338,15 @@
     <row r="110" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1440.94550917187</v>
+        <v>228.241621435469</v>
       </c>
       <c r="B110" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>493.736932988962</v>
+        <v>356.956814663772</v>
       </c>
       <c r="C110" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1824.98994674467</v>
+        <v>1980.50767966915</v>
       </c>
       <c r="D110" s="0" t="s">
         <v>127</v>
@@ -4370,15 +4370,15 @@
     <row r="111" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1737.2290466842</v>
+        <v>144.908445299816</v>
       </c>
       <c r="B111" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1270.23125255775</v>
+        <v>1299.09401982197</v>
       </c>
       <c r="C111" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1873.75066411138</v>
+        <v>1808.56185274556</v>
       </c>
       <c r="D111" s="0" t="s">
         <v>128</v>
@@ -4402,15 +4402,15 @@
     <row r="112" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1250.80711179979</v>
+        <v>435.324922393994</v>
       </c>
       <c r="B112" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>8.60294177261284</v>
+        <v>1771.6862129339</v>
       </c>
       <c r="C112" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1937.34448589964</v>
+        <v>972.761012342684</v>
       </c>
       <c r="D112" s="0" t="s">
         <v>129</v>
@@ -4434,15 +4434,15 @@
     <row r="113" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1600.4206171324</v>
+        <v>1799.56439037803</v>
       </c>
       <c r="B113" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>566.786237247362</v>
+        <v>483.290974237061</v>
       </c>
       <c r="C113" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1822.67352639231</v>
+        <v>1624.02575726547</v>
       </c>
       <c r="D113" s="0" t="s">
         <v>130</v>
@@ -4466,15 +4466,15 @@
     <row r="114" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>318.6677327327</v>
+        <v>1275.58651207149</v>
       </c>
       <c r="B114" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1655.40391968272</v>
+        <v>1264.51741883529</v>
       </c>
       <c r="C114" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>568.33307878448</v>
+        <v>1229.10314640825</v>
       </c>
       <c r="D114" s="0" t="s">
         <v>131</v>
@@ -4498,15 +4498,15 @@
     <row r="115" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1278.50003173752</v>
+        <v>146.376878819474</v>
       </c>
       <c r="B115" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>451.970316506535</v>
+        <v>1466.01488833558</v>
       </c>
       <c r="C115" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>925.147505113842</v>
+        <v>1578.39431636047</v>
       </c>
       <c r="D115" s="0" t="s">
         <v>90</v>
@@ -4530,15 +4530,15 @@
     <row r="116" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>321.791700121947</v>
+        <v>162.641682190993</v>
       </c>
       <c r="B116" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>63.8214945175791</v>
+        <v>464.187759423185</v>
       </c>
       <c r="C116" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>818.490980587462</v>
+        <v>703.016805855663</v>
       </c>
       <c r="D116" s="0" t="s">
         <v>134</v>
@@ -4562,15 +4562,15 @@
     <row r="117" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1675.80564042119</v>
+        <v>1738.27482160739</v>
       </c>
       <c r="B117" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>130.522550012542</v>
+        <v>1327.11043366277</v>
       </c>
       <c r="C117" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>154.427509604465</v>
+        <v>594.651424929336</v>
       </c>
       <c r="D117" s="0" t="s">
         <v>135</v>
@@ -4594,15 +4594,15 @@
     <row r="118" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1596.94583984763</v>
+        <v>808.158097400904</v>
       </c>
       <c r="B118" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1499.38857877462</v>
+        <v>220.569405348939</v>
       </c>
       <c r="C118" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1902.43669734857</v>
+        <v>1882.43642655097</v>
       </c>
       <c r="D118" s="0" t="s">
         <v>121</v>
@@ -4626,15 +4626,15 @@
     <row r="119" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>959.334048605952</v>
+        <v>562.947497294342</v>
       </c>
       <c r="B119" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1121.44644603214</v>
+        <v>1232.00583577771</v>
       </c>
       <c r="C119" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1054.3667499692</v>
+        <v>999.365555343968</v>
       </c>
       <c r="D119" s="0" t="s">
         <v>136</v>
@@ -4658,15 +4658,15 @@
     <row r="120" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>802.151672342839</v>
+        <v>1439.14352936417</v>
       </c>
       <c r="B120" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1977.595161232</v>
+        <v>1900.4790725315</v>
       </c>
       <c r="C120" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1159.90674969849</v>
+        <v>1985.14109558129</v>
       </c>
       <c r="D120" s="0" t="s">
         <v>137</v>
@@ -4684,15 +4684,15 @@
     <row r="121" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1118.53410513144</v>
+        <v>1209.14680178612</v>
       </c>
       <c r="B121" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>0.373730639191757</v>
+        <v>112.155920272285</v>
       </c>
       <c r="C121" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>458.023320877579</v>
+        <v>596.889422923058</v>
       </c>
       <c r="D121" s="0" t="s">
         <v>141</v>
@@ -4716,15 +4716,15 @@
     <row r="122" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>348.49838953938</v>
+        <v>1700.11660105253</v>
       </c>
       <c r="B122" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>133.353345111433</v>
+        <v>151.743598042995</v>
       </c>
       <c r="C122" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>646.84092892097</v>
+        <v>1292.88031554189</v>
       </c>
       <c r="D122" s="0" t="s">
         <v>142</v>
@@ -4748,15 +4748,15 @@
     <row r="123" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>303.396299496772</v>
+        <v>548.161650861067</v>
       </c>
       <c r="B123" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1251.75548595384</v>
+        <v>1617.19378514089</v>
       </c>
       <c r="C123" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>397.487240808423</v>
+        <v>724.158347141796</v>
       </c>
       <c r="D123" s="0" t="s">
         <v>143</v>
@@ -4780,15 +4780,15 @@
     <row r="124" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>407.334498589463</v>
+        <v>771.355190854596</v>
       </c>
       <c r="B124" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1053.38970748238</v>
+        <v>181.425490980296</v>
       </c>
       <c r="C124" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>655.023443038466</v>
+        <v>427.254813864271</v>
       </c>
       <c r="D124" s="0" t="s">
         <v>54</v>
@@ -4812,15 +4812,15 @@
     <row r="125" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>394.353640632527</v>
+        <v>579.734939922005</v>
       </c>
       <c r="B125" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>873.510932341842</v>
+        <v>95.1144034808974</v>
       </c>
       <c r="C125" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1690.02079747315</v>
+        <v>80.1504638496525</v>
       </c>
       <c r="D125" s="0" t="s">
         <v>144</v>
@@ -4844,15 +4844,15 @@
     <row r="126" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>458.43176872292</v>
+        <v>1524.67254261738</v>
       </c>
       <c r="B126" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1696.55003166753</v>
+        <v>823.56838710804</v>
       </c>
       <c r="C126" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>573.047341696373</v>
+        <v>1288.89427756125</v>
       </c>
       <c r="D126" s="0" t="s">
         <v>145</v>
@@ -4876,15 +4876,15 @@
     <row r="127" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>796.104553438945</v>
+        <v>122.231623326822</v>
       </c>
       <c r="B127" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>611.034777805676</v>
+        <v>967.027993104879</v>
       </c>
       <c r="C127" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1853.23275847804</v>
+        <v>611.331929597797</v>
       </c>
       <c r="D127" s="0" t="s">
         <v>146</v>
@@ -4908,15 +4908,15 @@
     <row r="128" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>302.535819278682</v>
+        <v>512.551112887395</v>
       </c>
       <c r="B128" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>109.156633180107</v>
+        <v>63.3418912028328</v>
       </c>
       <c r="C128" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>457.498730844899</v>
+        <v>123.65915349016</v>
       </c>
       <c r="D128" s="0" t="s">
         <v>147</v>
@@ -4940,15 +4940,15 @@
     <row r="129" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1335.06768350795</v>
+        <v>1011.82932582435</v>
       </c>
       <c r="B129" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>284.250758285373</v>
+        <v>1530.33779617158</v>
       </c>
       <c r="C129" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1332.96472119395</v>
+        <v>1338.36965610098</v>
       </c>
       <c r="D129" s="0" t="s">
         <v>143</v>
@@ -4972,15 +4972,15 @@
     <row r="130" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>751.727576777561</v>
+        <v>1201.22377565353</v>
       </c>
       <c r="B130" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>744.77287468562</v>
+        <v>43.5839703460404</v>
       </c>
       <c r="C130" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>560.368194068295</v>
+        <v>235.83861572266</v>
       </c>
       <c r="D130" s="0" t="s">
         <v>148</v>
@@ -5004,15 +5004,15 @@
     <row r="131" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>941.723373667299</v>
+        <v>1129.77598798398</v>
       </c>
       <c r="B131" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1005.12418501054</v>
+        <v>1784.22037678476</v>
       </c>
       <c r="C131" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>969.417344166591</v>
+        <v>104.194725281913</v>
       </c>
       <c r="D131" s="0" t="s">
         <v>149</v>
@@ -5036,15 +5036,15 @@
     <row r="132" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1419.61024294546</v>
+        <v>1623.73912277928</v>
       </c>
       <c r="B132" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1467.82137288108</v>
+        <v>943.395990866</v>
       </c>
       <c r="C132" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1979.14672832632</v>
+        <v>1524.52314164957</v>
       </c>
       <c r="D132" s="0" t="s">
         <v>150</v>
@@ -5068,15 +5068,15 @@
     <row r="133" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1032.08528755025</v>
+        <v>704.950458778734</v>
       </c>
       <c r="B133" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1891.13757658944</v>
+        <v>1321.63215577412</v>
       </c>
       <c r="C133" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>680.47716088612</v>
+        <v>1501.55442383329</v>
       </c>
       <c r="D133" s="0" t="s">
         <v>151</v>
@@ -5100,15 +5100,15 @@
     <row r="134" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>155.742439896262</v>
+        <v>796.023178186662</v>
       </c>
       <c r="B134" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1299.70442345336</v>
+        <v>1468.68714233153</v>
       </c>
       <c r="C134" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1981.76854643681</v>
+        <v>385.580738069919</v>
       </c>
       <c r="D134" s="0" t="s">
         <v>152</v>
@@ -5132,15 +5132,15 @@
     <row r="135" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>666.382478362883</v>
+        <v>698.500534213263</v>
       </c>
       <c r="B135" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1745.1707882846</v>
+        <v>1984.40505379374</v>
       </c>
       <c r="C135" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1866.54305702138</v>
+        <v>136.707283286257</v>
       </c>
       <c r="D135" s="0" t="s">
         <v>153</v>
@@ -5164,15 +5164,15 @@
     <row r="136" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>768.140737101094</v>
+        <v>1022.76072365892</v>
       </c>
       <c r="B136" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1878.80481119497</v>
+        <v>1601.46729401581</v>
       </c>
       <c r="C136" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>123.131470789981</v>
+        <v>1675.42493152245</v>
       </c>
       <c r="D136" s="0" t="s">
         <v>134</v>
@@ -5196,15 +5196,15 @@
     <row r="137" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1103.80654258975</v>
+        <v>1171.40295760523</v>
       </c>
       <c r="B137" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>550.403610445729</v>
+        <v>493.064090738021</v>
       </c>
       <c r="C137" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>356.389760814545</v>
+        <v>1139.12131614715</v>
       </c>
       <c r="D137" s="0" t="s">
         <v>61</v>
@@ -5228,15 +5228,15 @@
     <row r="138" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>379.903351182006</v>
+        <v>1120.25903204919</v>
       </c>
       <c r="B138" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>139.201582037742</v>
+        <v>736.222559529062</v>
       </c>
       <c r="C138" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1682.43265082962</v>
+        <v>1535.73602874847</v>
       </c>
       <c r="D138" s="0" t="s">
         <v>49</v>
@@ -5260,15 +5260,15 @@
     <row r="139" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1532.09510425004</v>
+        <v>138.048977747146</v>
       </c>
       <c r="B139" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1155.54206576113</v>
+        <v>450.840018368592</v>
       </c>
       <c r="C139" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>552.635184516287</v>
+        <v>1274.84861350495</v>
       </c>
       <c r="D139" s="0" t="s">
         <v>75</v>
@@ -5292,15 +5292,15 @@
     <row r="140" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1441.40707258731</v>
+        <v>1692.13609615474</v>
       </c>
       <c r="B140" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>312.229596686091</v>
+        <v>1508.10592121769</v>
       </c>
       <c r="C140" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>401.038269821729</v>
+        <v>428.810223942029</v>
       </c>
       <c r="D140" s="0" t="s">
         <v>135</v>
@@ -5324,15 +5324,15 @@
     <row r="141" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1303.76638188566</v>
+        <v>1948.67661213216</v>
       </c>
       <c r="B141" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1651.26972839616</v>
+        <v>1392.02056053703</v>
       </c>
       <c r="C141" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>325.985783086427</v>
+        <v>1971.50883504621</v>
       </c>
       <c r="D141" s="0" t="s">
         <v>154</v>
@@ -5350,15 +5350,15 @@
     <row r="142" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>989.45341205418</v>
+        <v>783.843207934251</v>
       </c>
       <c r="B142" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>914.113589017525</v>
+        <v>425.391665623805</v>
       </c>
       <c r="C142" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1189.31948361276</v>
+        <v>441.070555790532</v>
       </c>
       <c r="D142" s="0" t="s">
         <v>130</v>
@@ -5382,15 +5382,15 @@
     <row r="143" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1346.96017173016</v>
+        <v>738.312611301258</v>
       </c>
       <c r="B143" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1707.30966416093</v>
+        <v>61.74599047368</v>
       </c>
       <c r="C143" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>636.414617759487</v>
+        <v>1644.75611445539</v>
       </c>
       <c r="D143" s="0" t="s">
         <v>158</v>
@@ -5414,15 +5414,15 @@
     <row r="144" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>768.384465868771</v>
+        <v>93.7053426604706</v>
       </c>
       <c r="B144" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1647.18280023116</v>
+        <v>1376.07966742369</v>
       </c>
       <c r="C144" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>563.573100815565</v>
+        <v>614.208085698765</v>
       </c>
       <c r="D144" s="0" t="s">
         <v>159</v>
@@ -5446,15 +5446,15 @@
     <row r="145" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1855.32519387556</v>
+        <v>1945.46910312083</v>
       </c>
       <c r="B145" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1465.28412774114</v>
+        <v>1208.01228662598</v>
       </c>
       <c r="C145" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>936.021125684209</v>
+        <v>1897.7328714247</v>
       </c>
       <c r="D145" s="0" t="s">
         <v>72</v>
@@ -5478,15 +5478,15 @@
     <row r="146" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>614.845888261977</v>
+        <v>1417.74282923427</v>
       </c>
       <c r="B146" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>591.330636811465</v>
+        <v>953.977841388043</v>
       </c>
       <c r="C146" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1277.957045572</v>
+        <v>1628.87882848141</v>
       </c>
       <c r="D146" s="0" t="s">
         <v>82</v>
@@ -5510,15 +5510,15 @@
     <row r="147" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>580.962183861156</v>
+        <v>1623.29273175817</v>
       </c>
       <c r="B147" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>24.666891070158</v>
+        <v>326.367480152245</v>
       </c>
       <c r="C147" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1670.72006935856</v>
+        <v>1853.9565199311</v>
       </c>
       <c r="D147" s="0" t="s">
         <v>102</v>
@@ -5542,15 +5542,15 @@
     <row r="148" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>547.350528603589</v>
+        <v>1336.93099535435</v>
       </c>
       <c r="B148" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>932.457109403896</v>
+        <v>1526.6463069537</v>
       </c>
       <c r="C148" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>417.374897642515</v>
+        <v>137.292137217704</v>
       </c>
       <c r="D148" s="0" t="s">
         <v>160</v>
@@ -5574,15 +5574,15 @@
     <row r="149" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1041.5016785468</v>
+        <v>403.251976171633</v>
       </c>
       <c r="B149" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1434.17966992737</v>
+        <v>1320.29450665606</v>
       </c>
       <c r="C149" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>330.105782993381</v>
+        <v>845.952639391457</v>
       </c>
       <c r="D149" s="0" t="s">
         <v>150</v>
@@ -5606,15 +5606,15 @@
     <row r="150" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>99.6993621769957</v>
+        <v>1461.55715148337</v>
       </c>
       <c r="B150" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1212.29769263665</v>
+        <v>1587.25030795844</v>
       </c>
       <c r="C150" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>408.607829679909</v>
+        <v>662.472875849121</v>
       </c>
       <c r="D150" s="0" t="s">
         <v>106</v>
@@ -5638,15 +5638,15 @@
     <row r="151" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1760.90841891532</v>
+        <v>366.620578825621</v>
       </c>
       <c r="B151" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>991.354978363897</v>
+        <v>639.507851180228</v>
       </c>
       <c r="C151" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1219.92327683102</v>
+        <v>1892.17076366867</v>
       </c>
       <c r="D151" s="0" t="s">
         <v>161</v>
@@ -5670,15 +5670,15 @@
     <row r="152" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1470.31842835325</v>
+        <v>512.431341131166</v>
       </c>
       <c r="B152" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>830.471805352533</v>
+        <v>220.167098783922</v>
       </c>
       <c r="C152" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>725.214841473192</v>
+        <v>377.902196666517</v>
       </c>
       <c r="D152" s="0" t="s">
         <v>128</v>
@@ -5702,15 +5702,15 @@
     <row r="153" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1075.10148519151</v>
+        <v>1680.33336198482</v>
       </c>
       <c r="B153" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1098.29514337451</v>
+        <v>684.506896983962</v>
       </c>
       <c r="C153" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1973.14554448163</v>
+        <v>474.457702879304</v>
       </c>
       <c r="D153" s="0" t="s">
         <v>109</v>
@@ -5734,15 +5734,15 @@
     <row r="154" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>870.401157458768</v>
+        <v>1075.74655123013</v>
       </c>
       <c r="B154" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>824.048067168306</v>
+        <v>179.767143913161</v>
       </c>
       <c r="C154" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1908.42346964455</v>
+        <v>1713.74931209641</v>
       </c>
       <c r="D154" s="0" t="s">
         <v>162</v>
@@ -5766,15 +5766,15 @@
     <row r="155" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1388.24848253664</v>
+        <v>410.487622703578</v>
       </c>
       <c r="B155" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>485.124527972886</v>
+        <v>1575.54158980918</v>
       </c>
       <c r="C155" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>785.999059504939</v>
+        <v>1264.47130737069</v>
       </c>
       <c r="D155" s="0" t="s">
         <v>163</v>
@@ -5798,15 +5798,15 @@
     <row r="156" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1827.27664235798</v>
+        <v>1501.68834461141</v>
       </c>
       <c r="B156" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>482.180833531924</v>
+        <v>422.95092122847</v>
       </c>
       <c r="C156" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>446.521960673452</v>
+        <v>251.827552241393</v>
       </c>
       <c r="D156" s="0" t="s">
         <v>164</v>
@@ -5830,15 +5830,15 @@
     <row r="157" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1483.05377938305</v>
+        <v>586.809692672735</v>
       </c>
       <c r="B157" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>841.397988237104</v>
+        <v>671.216722043301</v>
       </c>
       <c r="C157" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1791.05411436691</v>
+        <v>1359.10979281478</v>
       </c>
       <c r="D157" s="0" t="s">
         <v>89</v>
@@ -5862,15 +5862,15 @@
     <row r="158" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1376.22264047861</v>
+        <v>572.419421994182</v>
       </c>
       <c r="B158" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>695.624353053128</v>
+        <v>1751.79424185987</v>
       </c>
       <c r="C158" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1130.71117354777</v>
+        <v>627.096528923683</v>
       </c>
       <c r="D158" s="0" t="s">
         <v>165</v>
@@ -5894,15 +5894,15 @@
     <row r="159" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>572.138072179398</v>
+        <v>700.047612594921</v>
       </c>
       <c r="B159" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>231.030298247477</v>
+        <v>1878.17595817109</v>
       </c>
       <c r="C159" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>751.444864050636</v>
+        <v>672.265765495248</v>
       </c>
       <c r="D159" s="0" t="s">
         <v>159</v>
@@ -5926,15 +5926,15 @@
     <row r="160" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>700.554822380646</v>
+        <v>1360.31401676136</v>
       </c>
       <c r="B160" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>938.97008238552</v>
+        <v>201.080089155358</v>
       </c>
       <c r="C160" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>807.544268829204</v>
+        <v>314.424723816636</v>
       </c>
       <c r="D160" s="0" t="s">
         <v>166</v>
@@ -5952,15 +5952,15 @@
     <row r="161" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1113.11583850628</v>
+        <v>27.8055426523812</v>
       </c>
       <c r="B161" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1742.89892809742</v>
+        <v>1963.13019592842</v>
       </c>
       <c r="C161" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1043.44621317482</v>
+        <v>170.124542071494</v>
       </c>
       <c r="D161" s="0" t="s">
         <v>170</v>
@@ -5984,15 +5984,15 @@
     <row r="162" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1137.47188726714</v>
+        <v>1244.49827959437</v>
       </c>
       <c r="B162" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1669.39337793387</v>
+        <v>1709.00473827144</v>
       </c>
       <c r="C162" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>192.107218851142</v>
+        <v>1032.33852298058</v>
       </c>
       <c r="D162" s="0" t="s">
         <v>123</v>
@@ -6016,15 +6016,15 @@
     <row r="163" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1213.47096431017</v>
+        <v>313.108284674349</v>
       </c>
       <c r="B163" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1683.35965399001</v>
+        <v>711.625846568742</v>
       </c>
       <c r="C163" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>815.957113039632</v>
+        <v>813.005257772931</v>
       </c>
       <c r="D163" s="0" t="s">
         <v>171</v>
@@ -6048,15 +6048,15 @@
     <row r="164" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1461.39390691112</v>
+        <v>403.781982950266</v>
       </c>
       <c r="B164" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>760.225541375515</v>
+        <v>1366.25551350239</v>
       </c>
       <c r="C164" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>282.9254734503</v>
+        <v>490.958136207465</v>
       </c>
       <c r="D164" s="0" t="s">
         <v>172</v>
@@ -6080,15 +6080,15 @@
     <row r="165" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1754.14883694793</v>
+        <v>1016.24603365313</v>
       </c>
       <c r="B165" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1258.74327241665</v>
+        <v>1866.41789307514</v>
       </c>
       <c r="C165" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1974.18979852911</v>
+        <v>615.97007652642</v>
       </c>
       <c r="D165" s="0" t="s">
         <v>70</v>
@@ -6112,15 +6112,15 @@
     <row r="166" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1622.00834777786</v>
+        <v>1136.01656566653</v>
       </c>
       <c r="B166" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>134.800018139208</v>
+        <v>280.819343509628</v>
       </c>
       <c r="C166" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1825.61623180609</v>
+        <v>1387.5643295976</v>
       </c>
       <c r="D166" s="0" t="s">
         <v>173</v>
@@ -6144,15 +6144,15 @@
     <row r="167" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1616.71526178014</v>
+        <v>1710.12189647457</v>
       </c>
       <c r="B167" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>976.64246464921</v>
+        <v>1838.17612616401</v>
       </c>
       <c r="C167" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>735.62842806728</v>
+        <v>446.280618944496</v>
       </c>
       <c r="D167" s="0" t="s">
         <v>80</v>
@@ -6176,15 +6176,15 @@
     <row r="168" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1147.67342800491</v>
+        <v>711.027534245583</v>
       </c>
       <c r="B168" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>455.713908383802</v>
+        <v>1092.85042040999</v>
       </c>
       <c r="C168" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1545.79585312552</v>
+        <v>523.923140454637</v>
       </c>
       <c r="D168" s="0" t="s">
         <v>174</v>
@@ -6208,15 +6208,15 @@
     <row r="169" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1667.35086151684</v>
+        <v>888.473310992143</v>
       </c>
       <c r="B169" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>444.941896724498</v>
+        <v>1652.67074698329</v>
       </c>
       <c r="C169" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1402.50037385145</v>
+        <v>383.251579824625</v>
       </c>
       <c r="D169" s="0" t="s">
         <v>154</v>
@@ -6234,15 +6234,15 @@
     <row r="170" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>509.593952193075</v>
+        <v>920.523136004177</v>
       </c>
       <c r="B170" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1121.17958373312</v>
+        <v>733.663802258279</v>
       </c>
       <c r="C170" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1326.78864415059</v>
+        <v>936.33106007238</v>
       </c>
       <c r="D170" s="0" t="s">
         <v>129</v>
@@ -6266,15 +6266,15 @@
     <row r="171" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1784.60755592006</v>
+        <v>230.073093384446</v>
       </c>
       <c r="B171" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>282.850163669022</v>
+        <v>1996.42230531037</v>
       </c>
       <c r="C171" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>979.961603231834</v>
+        <v>1922.41105080572</v>
       </c>
       <c r="D171" s="0" t="s">
         <v>149</v>
@@ -6298,15 +6298,15 @@
     <row r="172" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1337.03158967048</v>
+        <v>80.3629745435476</v>
       </c>
       <c r="B172" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>541.015256732571</v>
+        <v>971.614159741777</v>
       </c>
       <c r="C172" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1336.80603987521</v>
+        <v>693.122101421988</v>
       </c>
       <c r="D172" s="0" t="s">
         <v>160</v>
@@ -6330,15 +6330,15 @@
     <row r="173" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1221.39757110162</v>
+        <v>1.55817237070319</v>
       </c>
       <c r="B173" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1616.5210214069</v>
+        <v>744.305530362885</v>
       </c>
       <c r="C173" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>650.438417486667</v>
+        <v>185.555230512877</v>
       </c>
       <c r="D173" s="0" t="s">
         <v>122</v>
@@ -6362,15 +6362,15 @@
     <row r="174" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1207.70572006489</v>
+        <v>1514.25574823138</v>
       </c>
       <c r="B174" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1567.65538599644</v>
+        <v>28.4687134291953</v>
       </c>
       <c r="C174" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1927.06793131769</v>
+        <v>1685.41812727834</v>
       </c>
       <c r="D174" s="0" t="s">
         <v>175</v>
@@ -6394,15 +6394,15 @@
     <row r="175" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>722.152789089745</v>
+        <v>1986.29226768306</v>
       </c>
       <c r="B175" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1857.36957293009</v>
+        <v>591.190462193841</v>
       </c>
       <c r="C175" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>663.224545156918</v>
+        <v>590.651131219048</v>
       </c>
       <c r="D175" s="0" t="s">
         <v>162</v>
@@ -6426,15 +6426,15 @@
     <row r="176" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>129.590226263605</v>
+        <v>181.418268005042</v>
       </c>
       <c r="B176" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>173.78810591141</v>
+        <v>537.189980704422</v>
       </c>
       <c r="C176" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>199.713432072525</v>
+        <v>1637.29980275564</v>
       </c>
       <c r="D176" s="0" t="s">
         <v>176</v>
@@ -6458,15 +6458,15 @@
     <row r="177" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>275.620691180819</v>
+        <v>1839.44750060758</v>
       </c>
       <c r="B177" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1777.20839701726</v>
+        <v>888.185204837387</v>
       </c>
       <c r="C177" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>757.227966863807</v>
+        <v>636.514086032321</v>
       </c>
       <c r="D177" s="0" t="s">
         <v>177</v>
@@ -6490,15 +6490,15 @@
     <row r="178" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1202.03129652002</v>
+        <v>206.621340343189</v>
       </c>
       <c r="B178" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>267.876893596405</v>
+        <v>737.321009505914</v>
       </c>
       <c r="C178" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>641.339059890411</v>
+        <v>1305.07296875078</v>
       </c>
       <c r="D178" s="0" t="s">
         <v>165</v>
@@ -6522,15 +6522,15 @@
     <row r="179" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1954.82033339458</v>
+        <v>1962.50050109672</v>
       </c>
       <c r="B179" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1042.18472471412</v>
+        <v>1844.37866545063</v>
       </c>
       <c r="C179" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>952.636558827314</v>
+        <v>205.50035299929</v>
       </c>
       <c r="D179" s="0" t="s">
         <v>117</v>
@@ -6554,15 +6554,15 @@
     <row r="180" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1349.52735456483</v>
+        <v>1101.05336704851</v>
       </c>
       <c r="B180" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>569.146402669369</v>
+        <v>462.678622429193</v>
       </c>
       <c r="C180" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>96.0446663013611</v>
+        <v>376.547512140695</v>
       </c>
       <c r="D180" s="0" t="s">
         <v>178</v>
@@ -6586,15 +6586,15 @@
     <row r="181" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1339.06100977128</v>
+        <v>1575.734836432</v>
       </c>
       <c r="B181" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>470.696692829873</v>
+        <v>514.008733789057</v>
       </c>
       <c r="C181" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1985.33098846208</v>
+        <v>1878.59304569198</v>
       </c>
       <c r="D181" s="0" t="s">
         <v>94</v>
@@ -6618,15 +6618,15 @@
     <row r="182" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1372.32694367493</v>
+        <v>1606.69129681878</v>
       </c>
       <c r="B182" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>141.979285561289</v>
+        <v>351.931778123998</v>
       </c>
       <c r="C182" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1716.82021442034</v>
+        <v>1428.85859916256</v>
       </c>
       <c r="D182" s="0" t="s">
         <v>146</v>
@@ -6650,15 +6650,15 @@
     <row r="183" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1906.56819917263</v>
+        <v>938.796765424877</v>
       </c>
       <c r="B183" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1394.8557958285</v>
+        <v>1444.39467186976</v>
       </c>
       <c r="C183" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1041.84108587551</v>
+        <v>227.828970236601</v>
       </c>
       <c r="D183" s="0" t="s">
         <v>141</v>
@@ -6682,15 +6682,15 @@
     <row r="184" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>250.999512773041</v>
+        <v>1004.0666644404</v>
       </c>
       <c r="B184" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>282.761276744534</v>
+        <v>239.237837567156</v>
       </c>
       <c r="C184" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1881.57824570149</v>
+        <v>153.591696730902</v>
       </c>
       <c r="D184" s="0" t="s">
         <v>166</v>
@@ -6708,15 +6708,15 @@
     <row r="185" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1214.41272962598</v>
+        <v>142.697900065203</v>
       </c>
       <c r="B185" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1990.09830905799</v>
+        <v>1773.3614257934</v>
       </c>
       <c r="C185" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1115.71469285614</v>
+        <v>187.812840648467</v>
       </c>
       <c r="D185" s="0" t="s">
         <v>100</v>
@@ -6740,15 +6740,15 @@
     <row r="186" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1118.6032473604</v>
+        <v>1783.74920020163</v>
       </c>
       <c r="B186" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1639.84271571868</v>
+        <v>319.59715739151</v>
       </c>
       <c r="C186" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>704.554152570166</v>
+        <v>193.80909334339</v>
       </c>
       <c r="D186" s="0" t="s">
         <v>103</v>
@@ -6772,15 +6772,15 @@
     <row r="187" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1792.9559999513</v>
+        <v>189.975683818593</v>
       </c>
       <c r="B187" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>573.640683352779</v>
+        <v>1709.51538804174</v>
       </c>
       <c r="C187" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>599.388885020154</v>
+        <v>1945.98605396555</v>
       </c>
       <c r="D187" s="0" t="s">
         <v>108</v>
@@ -6804,15 +6804,15 @@
     <row r="188" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>793.344148625876</v>
+        <v>1381.31886343067</v>
       </c>
       <c r="B188" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>861.283216988038</v>
+        <v>1354.0539551947</v>
       </c>
       <c r="C188" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>242.597614556153</v>
+        <v>1357.62511906582</v>
       </c>
       <c r="D188" s="0" t="s">
         <v>125</v>
@@ -6836,15 +6836,15 @@
     <row r="189" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>454.426979149608</v>
+        <v>963.484147403698</v>
       </c>
       <c r="B189" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>988.397417222456</v>
+        <v>1261.19338168423</v>
       </c>
       <c r="C189" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>155.274007321319</v>
+        <v>1648.24127205361</v>
       </c>
       <c r="D189" s="0" t="s">
         <v>179</v>
@@ -6868,15 +6868,15 @@
     <row r="190" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>355.863011810713</v>
+        <v>1653.35611873175</v>
       </c>
       <c r="B190" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1127.19125265654</v>
+        <v>1362.11465515529</v>
       </c>
       <c r="C190" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>153.565439637623</v>
+        <v>1956.94472522715</v>
       </c>
       <c r="D190" s="0" t="s">
         <v>174</v>
@@ -6900,15 +6900,15 @@
     <row r="191" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1999.68064407262</v>
+        <v>509.647281198455</v>
       </c>
       <c r="B191" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1955.47102434461</v>
+        <v>1729.97737184182</v>
       </c>
       <c r="C191" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>449.432339080635</v>
+        <v>1682.11891434985</v>
       </c>
       <c r="D191" s="0" t="s">
         <v>180</v>
@@ -6932,15 +6932,15 @@
     <row r="192" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>866.862705466816</v>
+        <v>1161.21545133435</v>
       </c>
       <c r="B192" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1549.98768340868</v>
+        <v>1197.07241371704</v>
       </c>
       <c r="C192" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1411.65507047175</v>
+        <v>1141.7762330642</v>
       </c>
       <c r="D192" s="0" t="s">
         <v>181</v>
@@ -6964,15 +6964,15 @@
     <row r="193" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1292.4318148981</v>
+        <v>1344.06579638371</v>
       </c>
       <c r="B193" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>11.4165590499311</v>
+        <v>642.353332123282</v>
       </c>
       <c r="C193" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>288.600589144755</v>
+        <v>868.535638609286</v>
       </c>
       <c r="D193" s="0" t="s">
         <v>13</v>
@@ -6996,15 +6996,15 @@
     <row r="194" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1839.79561055875</v>
+        <v>404.630693685976</v>
       </c>
       <c r="B194" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>399.739998397034</v>
+        <v>1237.65636766877</v>
       </c>
       <c r="C194" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1789.51445730299</v>
+        <v>844.147733315185</v>
       </c>
       <c r="D194" s="0" t="s">
         <v>182</v>
@@ -7028,15 +7028,15 @@
     <row r="195" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1065.84621056467</v>
+        <v>1646.27627151342</v>
       </c>
       <c r="B195" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>794.640351882892</v>
+        <v>1115.84089748572</v>
       </c>
       <c r="C195" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1399.62679366829</v>
+        <v>1106.62882993861</v>
       </c>
       <c r="D195" s="0" t="s">
         <v>52</v>
@@ -7060,15 +7060,15 @@
     <row r="196" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1596.80707927693</v>
+        <v>12.5335562757252</v>
       </c>
       <c r="B196" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1893.92958402772</v>
+        <v>920.407617174553</v>
       </c>
       <c r="C196" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>368.605867283422</v>
+        <v>1774.57360498012</v>
       </c>
       <c r="D196" s="0" t="s">
         <v>170</v>
@@ -7092,15 +7092,15 @@
     <row r="197" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>263.130435441133</v>
+        <v>52.9579517224831</v>
       </c>
       <c r="B197" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>399.707405262369</v>
+        <v>957.153256916471</v>
       </c>
       <c r="C197" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>765.187401671359</v>
+        <v>569.516506295521</v>
       </c>
       <c r="D197" s="0" t="s">
         <v>183</v>
@@ -7124,15 +7124,15 @@
     <row r="198" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>990.513402708897</v>
+        <v>1389.7073014574</v>
       </c>
       <c r="B198" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>647.356477084069</v>
+        <v>1285.69210183285</v>
       </c>
       <c r="C198" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>807.536060523868</v>
+        <v>538.132604061551</v>
       </c>
       <c r="D198" s="0" t="s">
         <v>184</v>
@@ -7156,15 +7156,15 @@
     <row r="199" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>876.348758982817</v>
+        <v>1147.9071736521</v>
       </c>
       <c r="B199" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1566.80878578439</v>
+        <v>594.070026001246</v>
       </c>
       <c r="C199" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>971.704736299137</v>
+        <v>501.960344466458</v>
       </c>
       <c r="D199" s="0" t="s">
         <v>185</v>
@@ -7188,15 +7188,15 @@
     <row r="200" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>775.416826614357</v>
+        <v>1243.93447874546</v>
       </c>
       <c r="B200" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1988.75710716916</v>
+        <v>1177.87589583178</v>
       </c>
       <c r="C200" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1340.12916779171</v>
+        <v>917.918344972989</v>
       </c>
       <c r="D200" s="0" t="s">
         <v>88</v>
@@ -7220,15 +7220,15 @@
     <row r="201" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>458.850446149118</v>
+        <v>1752.80444408924</v>
       </c>
       <c r="B201" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1077.11365779485</v>
+        <v>1996.08509830309</v>
       </c>
       <c r="C201" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1877.32960557341</v>
+        <v>178.352188430894</v>
       </c>
       <c r="D201" s="0" t="s">
         <v>43</v>
@@ -7246,15 +7246,15 @@
     <row r="202" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1002.60409179546</v>
+        <v>275.151780373579</v>
       </c>
       <c r="B202" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>721.52289107329</v>
+        <v>1840.21859509787</v>
       </c>
       <c r="C202" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1772.57789414816</v>
+        <v>1921.85333074738</v>
       </c>
       <c r="D202" s="0" t="s">
         <v>116</v>
@@ -7278,15 +7278,15 @@
     <row r="203" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>805.377611618166</v>
+        <v>1241.64397556005</v>
       </c>
       <c r="B203" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>652.900727029178</v>
+        <v>882.120517541541</v>
       </c>
       <c r="C203" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>485.233327779924</v>
+        <v>559.149156004905</v>
       </c>
       <c r="D203" s="0" t="s">
         <v>78</v>
@@ -7310,15 +7310,15 @@
     <row r="204" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1384.82726495508</v>
+        <v>285.426891183922</v>
       </c>
       <c r="B204" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>776.651528520066</v>
+        <v>1891.70326731446</v>
       </c>
       <c r="C204" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1808.10191639342</v>
+        <v>183.801079593205</v>
       </c>
       <c r="D204" s="0" t="s">
         <v>55</v>
@@ -7342,15 +7342,15 @@
     <row r="205" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>825.935336840159</v>
+        <v>562.217815453461</v>
       </c>
       <c r="B205" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1505.94785165765</v>
+        <v>1891.3131346095</v>
       </c>
       <c r="C205" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>234.831001987949</v>
+        <v>894.131406393774</v>
       </c>
       <c r="D205" s="0" t="s">
         <v>188</v>
@@ -7374,15 +7374,15 @@
     <row r="206" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>416.94984345452</v>
+        <v>886.767728977566</v>
       </c>
       <c r="B206" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>951.753910536464</v>
+        <v>182.995078492051</v>
       </c>
       <c r="C206" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>456.205167560509</v>
+        <v>1792.5307884832</v>
       </c>
       <c r="D206" s="0" t="s">
         <v>53</v>
@@ -7406,15 +7406,15 @@
     <row r="207" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1573.55536446261</v>
+        <v>1208.51496502048</v>
       </c>
       <c r="B207" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>887.743692126667</v>
+        <v>941.427445213667</v>
       </c>
       <c r="C207" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>308.557178133618</v>
+        <v>1048.48090404439</v>
       </c>
       <c r="D207" s="0" t="s">
         <v>145</v>
@@ -7438,15 +7438,15 @@
     <row r="208" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1658.14070215158</v>
+        <v>436.488396876548</v>
       </c>
       <c r="B208" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>480.1830585842</v>
+        <v>804.719327118682</v>
       </c>
       <c r="C208" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>292.837479347861</v>
+        <v>1598.88431826942</v>
       </c>
       <c r="D208" s="0" t="s">
         <v>182</v>
@@ -7470,15 +7470,15 @@
     <row r="209" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1899.54842735775</v>
+        <v>87.2179142291297</v>
       </c>
       <c r="B209" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1874.27489261542</v>
+        <v>536.63550906163</v>
       </c>
       <c r="C209" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1907.0009218228</v>
+        <v>1610.21704316581</v>
       </c>
       <c r="D209" s="0" t="s">
         <v>153</v>
@@ -7502,15 +7502,15 @@
     <row r="210" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>688.891492034345</v>
+        <v>1121.08969802083</v>
       </c>
       <c r="B210" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>447.437176439152</v>
+        <v>1568.81969909896</v>
       </c>
       <c r="C210" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>408.876421157219</v>
+        <v>1139.85348358857</v>
       </c>
       <c r="D210" s="0" t="s">
         <v>24</v>
@@ -7534,15 +7534,15 @@
     <row r="211" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>501.749592433585</v>
+        <v>1810.81412140995</v>
       </c>
       <c r="B211" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1867.46531032738</v>
+        <v>1352.01832593282</v>
       </c>
       <c r="C211" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1962.51646210585</v>
+        <v>216.636229397827</v>
       </c>
       <c r="D211" s="0" t="s">
         <v>189</v>
@@ -7566,15 +7566,15 @@
     <row r="212" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>138.694426692694</v>
+        <v>867.849816528309</v>
       </c>
       <c r="B212" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1374.9876595641</v>
+        <v>1428.86517684386</v>
       </c>
       <c r="C212" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>309.161146847462</v>
+        <v>235.551284225763</v>
       </c>
       <c r="D212" s="0" t="s">
         <v>190</v>
@@ -7598,15 +7598,15 @@
     <row r="213" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1877.08036718947</v>
+        <v>702.060614526692</v>
       </c>
       <c r="B213" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1250.24579790009</v>
+        <v>1116.28019766506</v>
       </c>
       <c r="C213" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>760.717066599383</v>
+        <v>1732.02765891518</v>
       </c>
       <c r="D213" s="0" t="s">
         <v>151</v>
@@ -7630,15 +7630,15 @@
     <row r="214" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1722.91002228077</v>
+        <v>1062.13922835538</v>
       </c>
       <c r="B214" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1098.43577925039</v>
+        <v>2.7852139590447</v>
       </c>
       <c r="C214" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1456.01994613998</v>
+        <v>1128.45227648052</v>
       </c>
       <c r="D214" s="0" t="s">
         <v>179</v>
@@ -7662,15 +7662,15 @@
     <row r="215" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1094.37300072378</v>
+        <v>11.6862188911438</v>
       </c>
       <c r="B215" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>939.589516887683</v>
+        <v>1141.80335272802</v>
       </c>
       <c r="C215" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1044.56101321777</v>
+        <v>1634.58644053167</v>
       </c>
       <c r="D215" s="0" t="s">
         <v>110</v>
@@ -7688,15 +7688,15 @@
     <row r="216" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>265.61045220742</v>
+        <v>1234.000440242</v>
       </c>
       <c r="B216" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1539.87538390796</v>
+        <v>807.951179905746</v>
       </c>
       <c r="C216" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>779.458203198615</v>
+        <v>463.187583837157</v>
       </c>
       <c r="D216" s="0" t="s">
         <v>191</v>
@@ -7720,15 +7720,15 @@
     <row r="217" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1848.81431632111</v>
+        <v>503.070756166684</v>
       </c>
       <c r="B217" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>81.1662342739928</v>
+        <v>233.592608069036</v>
       </c>
       <c r="C217" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1657.58750110162</v>
+        <v>1990.47750169743</v>
       </c>
       <c r="D217" s="0" t="s">
         <v>161</v>
@@ -7752,15 +7752,15 @@
     <row r="218" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1003.65183162426</v>
+        <v>1199.81089227609</v>
       </c>
       <c r="B218" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1115.94846939096</v>
+        <v>191.138377148506</v>
       </c>
       <c r="C218" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>979.231626835676</v>
+        <v>155.996427620854</v>
       </c>
       <c r="D218" s="0" t="s">
         <v>188</v>
@@ -7784,15 +7784,15 @@
     <row r="219" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>924.554608112269</v>
+        <v>709.399206094654</v>
       </c>
       <c r="B219" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1285.4452708004</v>
+        <v>402.678275007566</v>
       </c>
       <c r="C219" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>429.587490057848</v>
+        <v>339.108388997007</v>
       </c>
       <c r="D219" s="0" t="s">
         <v>192</v>
@@ -7816,15 +7816,15 @@
     <row r="220" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1161.5558707084</v>
+        <v>828.39585966421</v>
       </c>
       <c r="B220" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>824.548513406465</v>
+        <v>39.3828728354884</v>
       </c>
       <c r="C220" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1716.53006656338</v>
+        <v>1021.86410405479</v>
       </c>
       <c r="D220" s="0" t="s">
         <v>192</v>
@@ -7848,15 +7848,15 @@
     <row r="221" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1297.48067317826</v>
+        <v>149.556392960731</v>
       </c>
       <c r="B221" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>782.145719968056</v>
+        <v>1395.70102281353</v>
       </c>
       <c r="C221" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1278.42553178499</v>
+        <v>1273.08483726028</v>
       </c>
       <c r="D221" s="0" t="s">
         <v>105</v>
@@ -7880,15 +7880,15 @@
     <row r="222" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1471.71576360671</v>
+        <v>1567.79523737214</v>
       </c>
       <c r="B222" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>72.984934874654</v>
+        <v>1477.90586406359</v>
       </c>
       <c r="C222" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>747.920781324655</v>
+        <v>1987.69276846545</v>
       </c>
       <c r="D222" s="0" t="s">
         <v>193</v>
@@ -7912,15 +7912,15 @@
     <row r="223" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>169.752776706346</v>
+        <v>911.682146305423</v>
       </c>
       <c r="B223" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1362.07727416471</v>
+        <v>440.7483325915</v>
       </c>
       <c r="C223" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1367.16885315011</v>
+        <v>438.440603350189</v>
       </c>
       <c r="D223" s="0" t="s">
         <v>71</v>
@@ -7944,15 +7944,15 @@
     <row r="224" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1187.42272632196</v>
+        <v>267.675229430822</v>
       </c>
       <c r="B224" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>654.627050065589</v>
+        <v>1576.36210600218</v>
       </c>
       <c r="C224" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1259.16138201394</v>
+        <v>897.249347558886</v>
       </c>
       <c r="D224" s="0" t="s">
         <v>148</v>
@@ -7976,15 +7976,15 @@
     <row r="225" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1788.92819846908</v>
+        <v>1649.68061337065</v>
       </c>
       <c r="B225" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>474.048240100563</v>
+        <v>447.243931402949</v>
       </c>
       <c r="C225" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1622.12516219228</v>
+        <v>1048.62187326986</v>
       </c>
       <c r="D225" s="0" t="s">
         <v>91</v>
@@ -8008,15 +8008,15 @@
     <row r="226" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>166.099358683211</v>
+        <v>1837.21331717821</v>
       </c>
       <c r="B226" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>750.258661358139</v>
+        <v>1569.29993485599</v>
       </c>
       <c r="C226" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>455.741067576212</v>
+        <v>562.210346881863</v>
       </c>
       <c r="D226" s="0" t="s">
         <v>194</v>
@@ -8040,15 +8040,15 @@
     <row r="227" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1229.44515675184</v>
+        <v>1069.04634272165</v>
       </c>
       <c r="B227" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1974.51066464897</v>
+        <v>1320.27101139939</v>
       </c>
       <c r="C227" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>949.200274810787</v>
+        <v>1566.37835339205</v>
       </c>
       <c r="D227" s="0" t="s">
         <v>76</v>
@@ -8072,15 +8072,15 @@
     <row r="228" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1671.58722167672</v>
+        <v>539.483328772834</v>
       </c>
       <c r="B228" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>99.8861472197982</v>
+        <v>1453.80420032433</v>
       </c>
       <c r="C228" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>585.188258531298</v>
+        <v>863.480781946374</v>
       </c>
       <c r="D228" s="0" t="s">
         <v>195</v>
@@ -8104,15 +8104,15 @@
     <row r="229" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1123.88558327836</v>
+        <v>1356.55319335085</v>
       </c>
       <c r="B229" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1698.36048744028</v>
+        <v>948.693660029191</v>
       </c>
       <c r="C229" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>888.671923523318</v>
+        <v>901.737684969096</v>
       </c>
       <c r="D229" s="0" t="s">
         <v>190</v>
@@ -8136,15 +8136,15 @@
     <row r="230" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>114.274578116326</v>
+        <v>107.842186559434</v>
       </c>
       <c r="B230" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1262.96777313642</v>
+        <v>1501.8439242562</v>
       </c>
       <c r="C230" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1840.45328408529</v>
+        <v>24.1731703597442</v>
       </c>
       <c r="D230" s="0" t="s">
         <v>17</v>
@@ -8168,15 +8168,15 @@
     <row r="231" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1456.06896118163</v>
+        <v>1246.27439181094</v>
       </c>
       <c r="B231" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>10.0414258007504</v>
+        <v>331.070371374084</v>
       </c>
       <c r="C231" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1197.72931208291</v>
+        <v>1630.16918186919</v>
       </c>
       <c r="D231" s="0" t="s">
         <v>86</v>
@@ -8200,15 +8200,15 @@
     <row r="232" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1750.20287193863</v>
+        <v>1099.72427894084</v>
       </c>
       <c r="B232" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>965.724155975347</v>
+        <v>853.62736409199</v>
       </c>
       <c r="C232" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1316.19832904134</v>
+        <v>730.632272435544</v>
       </c>
       <c r="D232" s="0" t="s">
         <v>177</v>
@@ -8232,15 +8232,15 @@
     <row r="233" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>620.617217865349</v>
+        <v>1485.92318522968</v>
       </c>
       <c r="B233" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1176.05511044629</v>
+        <v>845.879185733722</v>
       </c>
       <c r="C233" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>924.858172010388</v>
+        <v>419.391883921869</v>
       </c>
       <c r="D233" s="0" t="s">
         <v>85</v>
@@ -8264,15 +8264,15 @@
     <row r="234" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>372.270712775342</v>
+        <v>935.469723473826</v>
       </c>
       <c r="B234" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1703.80834998642</v>
+        <v>1993.09837113015</v>
       </c>
       <c r="C234" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>452.876534773984</v>
+        <v>395.006461822842</v>
       </c>
       <c r="D234" s="0" t="s">
         <v>136</v>
@@ -8296,15 +8296,15 @@
     <row r="235" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1053.7729418924</v>
+        <v>754.611892113837</v>
       </c>
       <c r="B235" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1012.8511829942</v>
+        <v>531.808915115837</v>
       </c>
       <c r="C235" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>118.910981171249</v>
+        <v>728.691590421378</v>
       </c>
       <c r="D235" s="0" t="s">
         <v>124</v>
@@ -8328,15 +8328,15 @@
     <row r="236" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>200.753199134861</v>
+        <v>1896.79976360281</v>
       </c>
       <c r="B236" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1778.50426561296</v>
+        <v>290.761082900011</v>
       </c>
       <c r="C236" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1240.9531522551</v>
+        <v>550.168590753065</v>
       </c>
       <c r="D236" s="0" t="s">
         <v>178</v>
@@ -8360,15 +8360,15 @@
     <row r="237" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>632.74172101638</v>
+        <v>343.128079958442</v>
       </c>
       <c r="B237" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>477.554729621261</v>
+        <v>733.009295618664</v>
       </c>
       <c r="C237" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1793.69530507995</v>
+        <v>885.642368228423</v>
       </c>
       <c r="D237" s="0" t="s">
         <v>144</v>
@@ -8392,15 +8392,15 @@
     <row r="238" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1546.81632450659</v>
+        <v>816.552804273178</v>
       </c>
       <c r="B238" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1347.85415304621</v>
+        <v>59.4259212758441</v>
       </c>
       <c r="C238" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>878.69512243378</v>
+        <v>700.297548295427</v>
       </c>
       <c r="D238" s="0" t="s">
         <v>74</v>
@@ -8424,15 +8424,15 @@
     <row r="239" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>107.067685072257</v>
+        <v>1281.75249712469</v>
       </c>
       <c r="B239" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1236.23336199267</v>
+        <v>1092.81474296127</v>
       </c>
       <c r="C239" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1598.00255607046</v>
+        <v>1842.21711601745</v>
       </c>
       <c r="D239" s="0" t="s">
         <v>69</v>
@@ -8456,15 +8456,15 @@
     <row r="240" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1031.7914214399</v>
+        <v>544.112367194914</v>
       </c>
       <c r="B240" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1740.63047280398</v>
+        <v>825.333494491595</v>
       </c>
       <c r="C240" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1989.98755439487</v>
+        <v>1794.12287857648</v>
       </c>
       <c r="D240" s="0" t="s">
         <v>164</v>
@@ -8488,15 +8488,15 @@
     <row r="241" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1523.69688302641</v>
+        <v>864.237861955384</v>
       </c>
       <c r="B241" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1756.26218626498</v>
+        <v>1273.59144947717</v>
       </c>
       <c r="C241" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1029.9968266876</v>
+        <v>1503.16334575306</v>
       </c>
       <c r="D241" s="0" t="s">
         <v>79</v>
@@ -8520,15 +8520,15 @@
     <row r="242" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1401.05128796997</v>
+        <v>943.593135479602</v>
       </c>
       <c r="B242" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1790.65401546303</v>
+        <v>356.283223288787</v>
       </c>
       <c r="C242" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>722.799547711828</v>
+        <v>1320.26268139257</v>
       </c>
       <c r="D242" s="0" t="s">
         <v>196</v>
@@ -8552,15 +8552,15 @@
     <row r="243" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>287.910660752772</v>
+        <v>875.384292059757</v>
       </c>
       <c r="B243" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1487.00302085556</v>
+        <v>158.090579167596</v>
       </c>
       <c r="C243" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>31.4120947468688</v>
+        <v>236.872827313634</v>
       </c>
       <c r="D243" s="0" t="s">
         <v>114</v>
@@ -8584,15 +8584,15 @@
     <row r="244" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>544.034170511472</v>
+        <v>891.963100136038</v>
       </c>
       <c r="B244" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>267.441515521727</v>
+        <v>1280.48451203856</v>
       </c>
       <c r="C244" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1087.32111035995</v>
+        <v>727.720673481944</v>
       </c>
       <c r="D244" s="0" t="s">
         <v>137</v>
@@ -8610,15 +8610,15 @@
     <row r="245" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1679.36127746257</v>
+        <v>95.1325855180024</v>
       </c>
       <c r="B245" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1725.01100146402</v>
+        <v>481.66815851236</v>
       </c>
       <c r="C245" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>240.163158441051</v>
+        <v>987.774912632104</v>
       </c>
       <c r="D245" s="0" t="s">
         <v>163</v>
@@ -8642,15 +8642,15 @@
     <row r="246" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>980.193183611521</v>
+        <v>394.102917433369</v>
       </c>
       <c r="B246" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>548.288812612718</v>
+        <v>1731.80504138817</v>
       </c>
       <c r="C246" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1036.66700210516</v>
+        <v>1495.39448450556</v>
       </c>
       <c r="D246" s="0" t="s">
         <v>43</v>
@@ -8668,15 +8668,15 @@
     <row r="247" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1311.43464963593</v>
+        <v>1089.59882161734</v>
       </c>
       <c r="B247" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1662.4712081338</v>
+        <v>349.769685464866</v>
       </c>
       <c r="C247" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1494.91768126614</v>
+        <v>1188.68681719861</v>
       </c>
       <c r="D247" s="0" t="s">
         <v>43</v>
@@ -8694,15 +8694,15 @@
     <row r="248" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1532.58107338524</v>
+        <v>12.9159190171549</v>
       </c>
       <c r="B248" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>982.484653473617</v>
+        <v>188.099747161262</v>
       </c>
       <c r="C248" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>712.021956790475</v>
+        <v>1672.25846774023</v>
       </c>
       <c r="D248" s="0" t="s">
         <v>83</v>
@@ -8726,15 +8726,15 @@
     <row r="249" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1587.7835668008</v>
+        <v>1391.53067305808</v>
       </c>
       <c r="B249" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>971.57225399366</v>
+        <v>73.7971156683933</v>
       </c>
       <c r="C249" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1831.8888265512</v>
+        <v>605.193935157627</v>
       </c>
       <c r="D249" s="0" t="s">
         <v>126</v>
@@ -8758,15 +8758,15 @@
     <row r="250" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>867.303928318053</v>
+        <v>1885.72473056751</v>
       </c>
       <c r="B250" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>621.597171550512</v>
+        <v>943.012713362832</v>
       </c>
       <c r="C250" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>601.615158949758</v>
+        <v>1251.13454883499</v>
       </c>
       <c r="D250" s="0" t="s">
         <v>47</v>
@@ -8790,15 +8790,15 @@
     <row r="251" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1772.05672031118</v>
+        <v>1866.53592617995</v>
       </c>
       <c r="B251" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>488.933022463129</v>
+        <v>1814.93957743726</v>
       </c>
       <c r="C251" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1965.76305167628</v>
+        <v>64.8366816205687</v>
       </c>
       <c r="D251" s="0" t="s">
         <v>195</v>
@@ -8822,15 +8822,15 @@
     <row r="252" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>659.405010106044</v>
+        <v>1528.09662921566</v>
       </c>
       <c r="B252" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1181.63506816086</v>
+        <v>82.5920723572597</v>
       </c>
       <c r="C252" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1489.19034442331</v>
+        <v>1240.3901009989</v>
       </c>
       <c r="D252" s="0" t="s">
         <v>184</v>
@@ -8854,15 +8854,15 @@
     <row r="253" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>128.288113707239</v>
+        <v>863.325933091223</v>
       </c>
       <c r="B253" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1439.54458979265</v>
+        <v>1222.32530281268</v>
       </c>
       <c r="C253" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1158.77961490661</v>
+        <v>642.774078879696</v>
       </c>
       <c r="D253" s="0" t="s">
         <v>181</v>
@@ -8886,15 +8886,15 @@
     <row r="254" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>784.268077517688</v>
+        <v>895.500758165136</v>
       </c>
       <c r="B254" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1876.35046012733</v>
+        <v>376.280376781821</v>
       </c>
       <c r="C254" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>381.391525755588</v>
+        <v>1009.01137756816</v>
       </c>
       <c r="D254" s="0" t="s">
         <v>197</v>
@@ -8918,15 +8918,15 @@
     <row r="255" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1692.17189407327</v>
+        <v>1189.24808373615</v>
       </c>
       <c r="B255" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1819.23037046666</v>
+        <v>1864.48671826121</v>
       </c>
       <c r="C255" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1573.99806557057</v>
+        <v>191.36240228786</v>
       </c>
       <c r="D255" s="0" t="s">
         <v>198</v>
@@ -8950,15 +8950,15 @@
     <row r="256" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1538.44790359056</v>
+        <v>1758.98592989167</v>
       </c>
       <c r="B256" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1904.03537321954</v>
+        <v>1777.45902552452</v>
       </c>
       <c r="C256" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>754.905985439859</v>
+        <v>1526.07483119628</v>
       </c>
       <c r="D256" s="0" t="s">
         <v>131</v>
@@ -8982,15 +8982,15 @@
     <row r="257" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1336.17693714066</v>
+        <v>970.756602948377</v>
       </c>
       <c r="B257" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1232.19100437721</v>
+        <v>1715.47289216877</v>
       </c>
       <c r="C257" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1337.50534449292</v>
+        <v>595.476644252234</v>
       </c>
       <c r="D257" s="0" t="s">
         <v>185</v>
@@ -9014,15 +9014,15 @@
     <row r="258" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>142.357205455177</v>
+        <v>596.234968019236</v>
       </c>
       <c r="B258" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1059.41814909892</v>
+        <v>382.151061188457</v>
       </c>
       <c r="C258" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1571.98443698715</v>
+        <v>747.579363384557</v>
       </c>
       <c r="D258" s="0" t="s">
         <v>39</v>
@@ -9040,15 +9040,15 @@
     <row r="259" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1534.02245955209</v>
+        <v>1572.73701289433</v>
       </c>
       <c r="B259" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1582.84512643669</v>
+        <v>1688.97011851234</v>
       </c>
       <c r="C259" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>157.533202355377</v>
+        <v>1643.17087063791</v>
       </c>
       <c r="D259" s="0" t="s">
         <v>84</v>
@@ -9072,15 +9072,15 @@
     <row r="260" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1465.11626249117</v>
+        <v>779.777413625859</v>
       </c>
       <c r="B260" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>831.187403579244</v>
+        <v>588.540842003055</v>
       </c>
       <c r="C260" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>53.1001763630045</v>
+        <v>663.800462342749</v>
       </c>
       <c r="D260" s="0" t="s">
         <v>197</v>
@@ -9104,15 +9104,15 @@
     <row r="261" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1841.34310579169</v>
+        <v>423.711700912555</v>
       </c>
       <c r="B261" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>345.106902458803</v>
+        <v>1297.51656681576</v>
       </c>
       <c r="C261" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1763.83063474907</v>
+        <v>928.623007675993</v>
       </c>
       <c r="D261" s="0" t="s">
         <v>147</v>
@@ -9136,15 +9136,15 @@
     <row r="262" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1551.1149783374</v>
+        <v>349.052827239595</v>
       </c>
       <c r="B262" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>243.302761190145</v>
+        <v>348.694992114239</v>
       </c>
       <c r="C262" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>885.725000441289</v>
+        <v>1469.92651580479</v>
       </c>
       <c r="D262" s="0" t="s">
         <v>9</v>
@@ -9168,15 +9168,15 @@
     <row r="263" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1684.0787598636</v>
+        <v>1900.89284149036</v>
       </c>
       <c r="B263" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>960.672217175764</v>
+        <v>785.115647005153</v>
       </c>
       <c r="C263" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1785.53657806593</v>
+        <v>953.899666299286</v>
       </c>
       <c r="D263" s="0" t="s">
         <v>29</v>
@@ -9200,15 +9200,15 @@
     <row r="264" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>368.693541910708</v>
+        <v>280.690895000393</v>
       </c>
       <c r="B264" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1050.73751650049</v>
+        <v>1505.4843633312</v>
       </c>
       <c r="C264" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1545.38259583987</v>
+        <v>1770.21984637712</v>
       </c>
       <c r="D264" s="0" t="s">
         <v>199</v>
@@ -9232,15 +9232,15 @@
     <row r="265" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1880.22848962162</v>
+        <v>1668.50296577769</v>
       </c>
       <c r="B265" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>790.793041744503</v>
+        <v>1185.32322125278</v>
       </c>
       <c r="C265" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1692.8857416644</v>
+        <v>1474.98343843642</v>
       </c>
       <c r="D265" s="0" t="s">
         <v>104</v>
@@ -9264,15 +9264,15 @@
     <row r="266" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1869.12727176538</v>
+        <v>853.293453220775</v>
       </c>
       <c r="B266" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>944.741065220928</v>
+        <v>1753.05058567927</v>
       </c>
       <c r="C266" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1512.42019143392</v>
+        <v>690.482833821553</v>
       </c>
       <c r="D266" s="0" t="s">
         <v>183</v>
@@ -9296,15 +9296,15 @@
     <row r="267" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>867.726013472968</v>
+        <v>122.214531436581</v>
       </c>
       <c r="B267" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>722.303235889539</v>
+        <v>524.966658439699</v>
       </c>
       <c r="C267" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1354.01782232361</v>
+        <v>809.5610795206</v>
       </c>
       <c r="D267" s="0" t="s">
         <v>193</v>
@@ -9328,15 +9328,15 @@
     <row r="268" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>709.94490927639</v>
+        <v>1815.24180542294</v>
       </c>
       <c r="B268" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1789.46339262805</v>
+        <v>1216.22319338663</v>
       </c>
       <c r="C268" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1080.5173217585</v>
+        <v>1109.13861039116</v>
       </c>
       <c r="D268" s="0" t="s">
         <v>180</v>
@@ -9360,15 +9360,15 @@
     <row r="269" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1241.65126218958</v>
+        <v>918.630351998099</v>
       </c>
       <c r="B269" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>508.541431327666</v>
+        <v>266.981064865036</v>
       </c>
       <c r="C269" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>377.171188135729</v>
+        <v>1673.54965496647</v>
       </c>
       <c r="D269" s="0" t="s">
         <v>194</v>
@@ -9392,15 +9392,15 @@
     <row r="270" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1581.62611923151</v>
+        <v>1810.80358176484</v>
       </c>
       <c r="B270" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>628.515357511597</v>
+        <v>1235.87299544704</v>
       </c>
       <c r="C270" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>473.336357273525</v>
+        <v>627.036307847165</v>
       </c>
       <c r="D270" s="0" t="s">
         <v>96</v>
@@ -9424,15 +9424,15 @@
     <row r="271" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>53.877960289283</v>
+        <v>670.923652574728</v>
       </c>
       <c r="B271" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>559.094563558841</v>
+        <v>1863.32542417224</v>
       </c>
       <c r="C271" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>9.35134952301623</v>
+        <v>290.478389777474</v>
       </c>
       <c r="D271" s="0" t="s">
         <v>171</v>
@@ -9456,15 +9456,15 @@
     <row r="272" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1992.41073256833</v>
+        <v>1288.56997033235</v>
       </c>
       <c r="B272" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1143.79469775405</v>
+        <v>640.204448768925</v>
       </c>
       <c r="C272" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1594.92173752511</v>
+        <v>1776.30281755205</v>
       </c>
       <c r="D272" s="0" t="s">
         <v>127</v>
@@ -9488,15 +9488,15 @@
     <row r="273" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>244.615555256373</v>
+        <v>1366.56313404335</v>
       </c>
       <c r="B273" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>632.570279672592</v>
+        <v>277.302385395401</v>
       </c>
       <c r="C273" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>705.620391505903</v>
+        <v>889.111762626289</v>
       </c>
       <c r="D273" s="0" t="s">
         <v>198</v>
@@ -9520,15 +9520,15 @@
     <row r="274" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1874.69512362823</v>
+        <v>1402.86798862786</v>
       </c>
       <c r="B274" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1222.46455800717</v>
+        <v>1344.69662917922</v>
       </c>
       <c r="C274" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>464.361572064546</v>
+        <v>1274.19265011384</v>
       </c>
       <c r="D274" s="0" t="s">
         <v>196</v>
@@ -9552,15 +9552,15 @@
     <row r="275" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1138.81284677889</v>
+        <v>1633.14273690139</v>
       </c>
       <c r="B275" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1899.80838539666</v>
+        <v>1744.68058919906</v>
       </c>
       <c r="C275" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1246.4529381861</v>
+        <v>1761.48521051645</v>
       </c>
       <c r="D275" s="0" t="s">
         <v>93</v>
@@ -9584,15 +9584,15 @@
     <row r="276" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1617.55581614402</v>
+        <v>136.895649311982</v>
       </c>
       <c r="B276" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>352.999633002601</v>
+        <v>783.827806469737</v>
       </c>
       <c r="C276" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>97.1628120641224</v>
+        <v>410.2676388637</v>
       </c>
       <c r="D276" s="0" t="s">
         <v>95</v>
@@ -9616,15 +9616,15 @@
     <row r="277" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1332.8290505841</v>
+        <v>110.621894123255</v>
       </c>
       <c r="B277" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1711.03364057964</v>
+        <v>1251.7709170832</v>
       </c>
       <c r="C277" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>611.486339854293</v>
+        <v>139.590321536561</v>
       </c>
       <c r="D277" s="0" t="s">
         <v>65</v>
@@ -9648,15 +9648,15 @@
     <row r="278" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1182.22379862565</v>
+        <v>1253.73099705071</v>
       </c>
       <c r="B278" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1186.98356708561</v>
+        <v>902.621923298075</v>
       </c>
       <c r="C278" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1550.86742830314</v>
+        <v>1223.91656082081</v>
       </c>
       <c r="D278" s="0" t="s">
         <v>191</v>
@@ -9680,15 +9680,15 @@
     <row r="279" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1730.90402314626</v>
+        <v>436.678220238969</v>
       </c>
       <c r="B279" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>793.025062633473</v>
+        <v>1609.74857735624</v>
       </c>
       <c r="C279" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>295.180188641973</v>
+        <v>293.785472362439</v>
       </c>
       <c r="D279" s="0" t="s">
         <v>173</v>
@@ -9712,15 +9712,15 @@
     <row r="280" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>377.828274549934</v>
+        <v>277.601104384463</v>
       </c>
       <c r="B280" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1703.72756658072</v>
+        <v>638.144733880417</v>
       </c>
       <c r="C280" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>454.107743404117</v>
+        <v>707.832952747431</v>
       </c>
       <c r="D280" s="0" t="s">
         <v>158</v>
@@ -9744,15 +9744,15 @@
     <row r="281" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>235.706373004074</v>
+        <v>761.41767263634</v>
       </c>
       <c r="B281" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1834.24567710465</v>
+        <v>1049.59837417888</v>
       </c>
       <c r="C281" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1939.50889107067</v>
+        <v>173.371508697417</v>
       </c>
       <c r="D281" s="0" t="s">
         <v>36</v>
@@ -9776,15 +9776,15 @@
     <row r="282" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1229.689013212</v>
+        <v>82.1260501418004</v>
       </c>
       <c r="B282" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1757.39582195823</v>
+        <v>267.524625919828</v>
       </c>
       <c r="C282" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>353.495658960274</v>
+        <v>1175.06478530231</v>
       </c>
       <c r="D282" s="0" t="s">
         <v>172</v>
@@ -9808,15 +9808,15 @@
     <row r="283" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>405.475440588207</v>
+        <v>458.030991735935</v>
       </c>
       <c r="B283" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>449.047369110006</v>
+        <v>667.742843009761</v>
       </c>
       <c r="C283" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1952.91611969667</v>
+        <v>1991.82871869476</v>
       </c>
       <c r="D283" s="0" t="s">
         <v>99</v>
@@ -9840,15 +9840,15 @@
     <row r="284" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1816.5436252873</v>
+        <v>465.961715224757</v>
       </c>
       <c r="B284" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1527.00517075359</v>
+        <v>1868.43494984739</v>
       </c>
       <c r="C284" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>44.1962663710627</v>
+        <v>140.477176368294</v>
       </c>
       <c r="D284" s="0" t="s">
         <v>142</v>
@@ -9872,15 +9872,15 @@
     <row r="285" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1262.88177607241</v>
+        <v>1237.97028847752</v>
       </c>
       <c r="B285" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>856.349850444939</v>
+        <v>437.374605532788</v>
       </c>
       <c r="C285" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1957.38522364226</v>
+        <v>13.6492798263452</v>
       </c>
       <c r="D285" s="0" t="s">
         <v>118</v>
@@ -9904,15 +9904,15 @@
     <row r="286" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>920.617002606</v>
+        <v>1876.19092520262</v>
       </c>
       <c r="B286" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>802.17263398316</v>
+        <v>1139.25565937718</v>
       </c>
       <c r="C286" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>117.304047883013</v>
+        <v>1611.74120332254</v>
       </c>
       <c r="D286" s="0" t="s">
         <v>152</v>
@@ -9936,15 +9936,15 @@
     <row r="287" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1859.67481563455</v>
+        <v>319.888232619124</v>
       </c>
       <c r="B287" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1911.42786902371</v>
+        <v>160.14633738797</v>
       </c>
       <c r="C287" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>128.597992736296</v>
+        <v>776.494916928322</v>
       </c>
       <c r="D287" s="0" t="s">
         <v>176</v>
@@ -9968,15 +9968,15 @@
     <row r="288" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>310.112178726127</v>
+        <v>261.245242944156</v>
       </c>
       <c r="B288" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1262.8832528741</v>
+        <v>58.0323358544939</v>
       </c>
       <c r="C288" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1071.2750123534</v>
+        <v>643.824480189805</v>
       </c>
       <c r="D288" s="0" t="s">
         <v>199</v>
@@ -10000,15 +10000,15 @@
     <row r="289" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>101.216093226969</v>
+        <v>800.009691715746</v>
       </c>
       <c r="B289" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>189.867525616039</v>
+        <v>374.491788246917</v>
       </c>
       <c r="C289" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>521.65214424485</v>
+        <v>783.605816794137</v>
       </c>
       <c r="D289" s="0" t="s">
         <v>189</v>
@@ -10032,15 +10032,15 @@
     <row r="290" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1551.78640771574</v>
+        <v>1240.01778238356</v>
       </c>
       <c r="B290" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>152.466226739697</v>
+        <v>362.697078343334</v>
       </c>
       <c r="C290" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>445.260275082198</v>
+        <v>1622.64724449988</v>
       </c>
       <c r="D290" s="0" t="s">
         <v>175</v>
@@ -10064,15 +10064,15 @@
     <row r="291" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>99.5364983850315</v>
+        <v>1037.52043864827</v>
       </c>
       <c r="B291" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1064.07784566268</v>
+        <v>928.371535380438</v>
       </c>
       <c r="C291" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1333.21688825008</v>
+        <v>1714.49912697815</v>
       </c>
       <c r="D291" s="0" t="s">
         <v>200</v>
@@ -10096,15 +10096,15 @@
     <row r="292" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>955.333790815723</v>
+        <v>1017.52675401841</v>
       </c>
       <c r="B292" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1416.28961033028</v>
+        <v>883.085415416255</v>
       </c>
       <c r="C292" s="1" t="n">
         <f aca="true">RAND()*2000</f>
-        <v>1641.90289980549</v>
+        <v>828.079675730104</v>
       </c>
       <c r="D292" s="0" t="s">
         <v>107</v>
